--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-16.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1096"/>
+  <dimension ref="A1:G1025"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27375,10 +27375,8 @@
       <c r="D990" t="inlineStr"/>
       <c r="E990" t="inlineStr"/>
       <c r="F990" t="inlineStr"/>
-      <c r="G990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G990" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="991">
@@ -27404,10 +27402,8 @@
           <t>56.0K</t>
         </is>
       </c>
-      <c r="G991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G991" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="992">
@@ -27437,10 +27433,8 @@
           <t>$-123B</t>
         </is>
       </c>
-      <c r="G992" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G992" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="993">
@@ -27466,10 +27460,8 @@
           <t>$273.0B</t>
         </is>
       </c>
-      <c r="G993" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G993" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="994">
@@ -27495,10 +27487,8 @@
           <t>$396.0B</t>
         </is>
       </c>
-      <c r="G994" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G994" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="995">
@@ -27528,10 +27518,8 @@
           <t>250.0K</t>
         </is>
       </c>
-      <c r="G995" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G995" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="996">
@@ -27561,10 +27549,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="G996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="997">
@@ -27590,10 +27576,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -27623,10 +27607,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="G998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="999">
@@ -27656,10 +27638,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -27689,10 +27669,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="G1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -27718,10 +27696,8 @@
         </is>
       </c>
       <c r="F1001" t="inlineStr"/>
-      <c r="G1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1002">
@@ -27743,10 +27719,8 @@
       </c>
       <c r="E1002" t="inlineStr"/>
       <c r="F1002" t="inlineStr"/>
-      <c r="G1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -27768,10 +27742,8 @@
       </c>
       <c r="E1003" t="inlineStr"/>
       <c r="F1003" t="inlineStr"/>
-      <c r="G1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -27793,10 +27765,8 @@
       </c>
       <c r="E1004" t="inlineStr"/>
       <c r="F1004" t="inlineStr"/>
-      <c r="G1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1004" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1005">
@@ -27818,10 +27788,8 @@
       </c>
       <c r="E1005" t="inlineStr"/>
       <c r="F1005" t="inlineStr"/>
-      <c r="G1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1005" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1006">
@@ -27839,63 +27807,81 @@
       </c>
       <c r="E1006" t="inlineStr"/>
       <c r="F1006" t="inlineStr"/>
-      <c r="G1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1006" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>Friday March 07 2025</t>
-        </is>
-      </c>
-      <c r="B1007" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade YoYFEB</t>
+        </is>
+      </c>
       <c r="C1007" t="inlineStr"/>
-      <c r="D1007" t="inlineStr"/>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="E1007" t="inlineStr"/>
-      <c r="F1007" t="inlineStr"/>
-      <c r="G1007" t="inlineStr"/>
+      <c r="F1007" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="G1007" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>PPI YoYFEB</t>
         </is>
       </c>
       <c r="C1008" t="inlineStr"/>
-      <c r="D1008" t="inlineStr"/>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="E1008" t="inlineStr"/>
-      <c r="F1008" t="inlineStr"/>
+      <c r="F1008" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="G1008" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAR/05</t>
+          <t>EIA Natural Gas Stocks ChangeMAR/07</t>
         </is>
       </c>
       <c r="C1009" t="inlineStr"/>
-      <c r="D1009" t="inlineStr">
-        <is>
-          <t>$6.77T</t>
-        </is>
-      </c>
+      <c r="D1009" t="inlineStr"/>
       <c r="E1009" t="inlineStr"/>
       <c r="F1009" t="inlineStr"/>
       <c r="G1009" t="inlineStr">
@@ -27907,12 +27893,12 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1010" t="inlineStr"/>
@@ -27921,198 +27907,126 @@
       <c r="F1010" t="inlineStr"/>
       <c r="G1010" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsFEB</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1011" t="inlineStr"/>
-      <c r="D1011" t="inlineStr">
-        <is>
-          <t>143K</t>
-        </is>
-      </c>
-      <c r="E1011" t="inlineStr">
-        <is>
-          <t>160K</t>
-        </is>
-      </c>
-      <c r="F1011" t="inlineStr">
-        <is>
-          <t>150.0K</t>
-        </is>
-      </c>
+      <c r="D1011" t="inlineStr"/>
+      <c r="E1011" t="inlineStr"/>
+      <c r="F1011" t="inlineStr"/>
       <c r="G1011" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Unemployment RateFEB</t>
+          <t>15-Year Mortgage RateMAR/13</t>
         </is>
       </c>
       <c r="C1012" t="inlineStr"/>
-      <c r="D1012" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E1012" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="F1012" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+      <c r="D1012" t="inlineStr"/>
+      <c r="E1012" t="inlineStr"/>
+      <c r="F1012" t="inlineStr"/>
       <c r="G1012" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMFEB</t>
+          <t>30-Year Mortgage RateMAR/13</t>
         </is>
       </c>
       <c r="C1013" t="inlineStr"/>
-      <c r="D1013" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1013" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1013" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D1013" t="inlineStr"/>
+      <c r="E1013" t="inlineStr"/>
+      <c r="F1013" t="inlineStr"/>
       <c r="G1013" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYFEB</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1014" t="inlineStr"/>
       <c r="D1014" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1014" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F1014" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+          <t>4.748%</t>
+        </is>
+      </c>
+      <c r="E1014" t="inlineStr"/>
+      <c r="F1014" t="inlineStr"/>
       <c r="G1014" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1015" t="inlineStr">
-        <is>
-          <t>Participation RateFEB</t>
-        </is>
-      </c>
+          <t>Friday March 14 2025</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr"/>
       <c r="C1015" t="inlineStr"/>
-      <c r="D1015" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="D1015" t="inlineStr"/>
       <c r="E1015" t="inlineStr"/>
-      <c r="F1015" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
-      <c r="G1015" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F1015" t="inlineStr"/>
+      <c r="G1015" t="inlineStr"/>
     </row>
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Average Weekly HoursFEB</t>
+          <t>Fed Balance SheetMAR/12</t>
         </is>
       </c>
       <c r="C1016" t="inlineStr"/>
-      <c r="D1016" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="E1016" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F1016" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
+      <c r="D1016" t="inlineStr"/>
+      <c r="E1016" t="inlineStr"/>
+      <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr">
         <is>
           <t>3</t>
@@ -28122,57 +28036,53 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Government PayrollsFEB</t>
+          <t>Michigan Consumer Sentiment PrelMAR</t>
         </is>
       </c>
       <c r="C1017" t="inlineStr"/>
       <c r="D1017" t="inlineStr">
         <is>
-          <t>32K</t>
+          <t>64.7</t>
         </is>
       </c>
       <c r="E1017" t="inlineStr"/>
       <c r="F1017" t="inlineStr">
         <is>
-          <t>-20.0K</t>
+          <t>63.2</t>
         </is>
       </c>
       <c r="G1017" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsFEB</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C1018" t="inlineStr"/>
       <c r="D1018" t="inlineStr">
         <is>
-          <t>3K</t>
-        </is>
-      </c>
-      <c r="E1018" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E1018" t="inlineStr"/>
       <c r="F1018" t="inlineStr">
         <is>
-          <t>6.0K</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="G1018" t="inlineStr">
@@ -28184,28 +28094,24 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateFEB</t>
+          <t>Michigan Consumer Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C1019" t="inlineStr"/>
       <c r="D1019" t="inlineStr">
         <is>
-          <t>111K</t>
-        </is>
-      </c>
-      <c r="E1019" t="inlineStr">
-        <is>
-          <t>142K</t>
-        </is>
-      </c>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E1019" t="inlineStr"/>
       <c r="F1019" t="inlineStr">
         <is>
-          <t>170.0K</t>
+          <t>63.5</t>
         </is>
       </c>
       <c r="G1019" t="inlineStr">
@@ -28217,24 +28123,24 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateFEB</t>
+          <t>Michigan Current Conditions PrelMAR</t>
         </is>
       </c>
       <c r="C1020" t="inlineStr"/>
       <c r="D1020" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>65.7</t>
         </is>
       </c>
       <c r="E1020" t="inlineStr"/>
       <c r="F1020" t="inlineStr">
         <is>
-          <t>7.6%</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="G1020" t="inlineStr">
@@ -28246,33 +28152,41 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Michigan Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C1021" t="inlineStr"/>
-      <c r="D1021" t="inlineStr"/>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="E1021" t="inlineStr"/>
-      <c r="F1021" t="inlineStr"/>
+      <c r="F1021" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="G1021" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>09:15 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Baker Hughes Oil Rig CountMAR/14</t>
         </is>
       </c>
       <c r="C1022" t="inlineStr"/>
@@ -28281,19 +28195,19 @@
       <c r="F1022" t="inlineStr"/>
       <c r="G1022" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>10:50 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Baker Hughes Total Rigs CountMAR/14</t>
         </is>
       </c>
       <c r="C1023" t="inlineStr"/>
@@ -28302,1758 +28216,35 @@
       <c r="F1023" t="inlineStr"/>
       <c r="G1023" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
-        </is>
-      </c>
-      <c r="B1024" t="inlineStr">
-        <is>
-          <t>Fed Chair Powell Speech</t>
-        </is>
-      </c>
+          <t>Saturday March 15 2025</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr"/>
       <c r="C1024" t="inlineStr"/>
       <c r="D1024" t="inlineStr"/>
       <c r="E1024" t="inlineStr"/>
       <c r="F1024" t="inlineStr"/>
-      <c r="G1024" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="G1024" t="inlineStr"/>
     </row>
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1025" t="inlineStr">
-        <is>
-          <t>Fed Kugler Speech</t>
-        </is>
-      </c>
+          <t>Sunday March 16 2025</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr"/>
       <c r="C1025" t="inlineStr"/>
       <c r="D1025" t="inlineStr"/>
       <c r="E1025" t="inlineStr"/>
       <c r="F1025" t="inlineStr"/>
-      <c r="G1025" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1026">
-      <c r="A1026" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1026" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/07</t>
-        </is>
-      </c>
-      <c r="C1026" t="inlineStr"/>
-      <c r="D1026" t="inlineStr">
-        <is>
-          <t>489</t>
-        </is>
-      </c>
-      <c r="E1026" t="inlineStr"/>
-      <c r="F1026" t="inlineStr"/>
-      <c r="G1026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1027">
-      <c r="A1027" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1027" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/07</t>
-        </is>
-      </c>
-      <c r="C1027" t="inlineStr"/>
-      <c r="D1027" t="inlineStr">
-        <is>
-          <t>593</t>
-        </is>
-      </c>
-      <c r="E1027" t="inlineStr"/>
-      <c r="F1027" t="inlineStr"/>
-      <c r="G1027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1028">
-      <c r="A1028" t="inlineStr"/>
-      <c r="B1028" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1028" t="inlineStr"/>
-      <c r="D1028" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1028" t="inlineStr"/>
-      <c r="F1028" t="inlineStr"/>
-      <c r="G1028" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1029">
-      <c r="A1029" t="inlineStr"/>
-      <c r="B1029" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1029" t="inlineStr"/>
-      <c r="D1029" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1029" t="inlineStr"/>
-      <c r="F1029" t="inlineStr"/>
-      <c r="G1029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1030">
-      <c r="A1030" t="inlineStr">
-        <is>
-          <t>Saturday March 08 2025</t>
-        </is>
-      </c>
-      <c r="B1030" t="inlineStr"/>
-      <c r="C1030" t="inlineStr"/>
-      <c r="D1030" t="inlineStr"/>
-      <c r="E1030" t="inlineStr"/>
-      <c r="F1030" t="inlineStr"/>
-      <c r="G1030" t="inlineStr"/>
-    </row>
-    <row r="1031">
-      <c r="A1031" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1031" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeJAN</t>
-        </is>
-      </c>
-      <c r="C1031" t="inlineStr"/>
-      <c r="D1031" t="inlineStr">
-        <is>
-          <t>$40.85B</t>
-        </is>
-      </c>
-      <c r="E1031" t="inlineStr">
-        <is>
-          <t>$14.5B</t>
-        </is>
-      </c>
-      <c r="F1031" t="inlineStr">
-        <is>
-          <t>$ -3.0B</t>
-        </is>
-      </c>
-      <c r="G1031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1032">
-      <c r="A1032" t="inlineStr">
-        <is>
-          <t>Sunday March 09 2025</t>
-        </is>
-      </c>
-      <c r="B1032" t="inlineStr"/>
-      <c r="C1032" t="inlineStr"/>
-      <c r="D1032" t="inlineStr"/>
-      <c r="E1032" t="inlineStr"/>
-      <c r="F1032" t="inlineStr"/>
-      <c r="G1032" t="inlineStr"/>
-    </row>
-    <row r="1033">
-      <c r="A1033" t="inlineStr">
-        <is>
-          <t>Monday March 10 2025</t>
-        </is>
-      </c>
-      <c r="B1033" t="inlineStr"/>
-      <c r="C1033" t="inlineStr"/>
-      <c r="D1033" t="inlineStr"/>
-      <c r="E1033" t="inlineStr"/>
-      <c r="F1033" t="inlineStr"/>
-      <c r="G1033" t="inlineStr"/>
-    </row>
-    <row r="1034">
-      <c r="A1034" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1034" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsFEB</t>
-        </is>
-      </c>
-      <c r="C1034" t="inlineStr"/>
-      <c r="D1034" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E1034" t="inlineStr"/>
-      <c r="F1034" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G1034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1035">
-      <c r="A1035" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1035" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1035" t="inlineStr"/>
-      <c r="D1035" t="inlineStr">
-        <is>
-          <t>4.210%</t>
-        </is>
-      </c>
-      <c r="E1035" t="inlineStr"/>
-      <c r="F1035" t="inlineStr"/>
-      <c r="G1035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1036">
-      <c r="A1036" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1036" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1036" t="inlineStr"/>
-      <c r="D1036" t="inlineStr">
-        <is>
-          <t>4.135%</t>
-        </is>
-      </c>
-      <c r="E1036" t="inlineStr"/>
-      <c r="F1036" t="inlineStr"/>
-      <c r="G1036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1037">
-      <c r="A1037" t="inlineStr">
-        <is>
-          <t>Tuesday March 11 2025</t>
-        </is>
-      </c>
-      <c r="B1037" t="inlineStr"/>
-      <c r="C1037" t="inlineStr"/>
-      <c r="D1037" t="inlineStr"/>
-      <c r="E1037" t="inlineStr"/>
-      <c r="F1037" t="inlineStr"/>
-      <c r="G1037" t="inlineStr"/>
-    </row>
-    <row r="1038">
-      <c r="A1038" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1038" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexFEB</t>
-        </is>
-      </c>
-      <c r="C1038" t="inlineStr"/>
-      <c r="D1038" t="inlineStr">
-        <is>
-          <t>102.8</t>
-        </is>
-      </c>
-      <c r="E1038" t="inlineStr"/>
-      <c r="F1038" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="G1038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1039">
-      <c r="A1039" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B1039" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAR/08</t>
-        </is>
-      </c>
-      <c r="C1039" t="inlineStr"/>
-      <c r="D1039" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E1039" t="inlineStr"/>
-      <c r="F1039" t="inlineStr"/>
-      <c r="G1039" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1040">
-      <c r="A1040" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1040" t="inlineStr">
-        <is>
-          <t>JOLTs Job OpeningsJAN</t>
-        </is>
-      </c>
-      <c r="C1040" t="inlineStr"/>
-      <c r="D1040" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
-      <c r="E1040" t="inlineStr"/>
-      <c r="F1040" t="inlineStr">
-        <is>
-          <t>7.5M</t>
-        </is>
-      </c>
-      <c r="G1040" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1041">
-      <c r="A1041" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1041" t="inlineStr">
-        <is>
-          <t>JOLTs Job QuitsJAN</t>
-        </is>
-      </c>
-      <c r="C1041" t="inlineStr"/>
-      <c r="D1041" t="inlineStr">
-        <is>
-          <t>3.197M</t>
-        </is>
-      </c>
-      <c r="E1041" t="inlineStr"/>
-      <c r="F1041" t="inlineStr">
-        <is>
-          <t>3.21M</t>
-        </is>
-      </c>
-      <c r="G1041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1042">
-      <c r="A1042" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1042" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C1042" t="inlineStr"/>
-      <c r="D1042" t="inlineStr"/>
-      <c r="E1042" t="inlineStr"/>
-      <c r="F1042" t="inlineStr"/>
-      <c r="G1042" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1043">
-      <c r="A1043" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1043" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1043" t="inlineStr"/>
-      <c r="D1043" t="inlineStr">
-        <is>
-          <t>4.300%</t>
-        </is>
-      </c>
-      <c r="E1043" t="inlineStr"/>
-      <c r="F1043" t="inlineStr"/>
-      <c r="G1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1044">
-      <c r="A1044" t="inlineStr">
-        <is>
-          <t>Wednesday March 12 2025</t>
-        </is>
-      </c>
-      <c r="B1044" t="inlineStr"/>
-      <c r="C1044" t="inlineStr"/>
-      <c r="D1044" t="inlineStr"/>
-      <c r="E1044" t="inlineStr"/>
-      <c r="F1044" t="inlineStr"/>
-      <c r="G1044" t="inlineStr"/>
-    </row>
-    <row r="1045">
-      <c r="A1045" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1045" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1045" t="inlineStr"/>
-      <c r="D1045" t="inlineStr">
-        <is>
-          <t>-1.455M</t>
-        </is>
-      </c>
-      <c r="E1045" t="inlineStr"/>
-      <c r="F1045" t="inlineStr"/>
-      <c r="G1045" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1046">
-      <c r="A1046" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1046" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAR/07</t>
-        </is>
-      </c>
-      <c r="C1046" t="inlineStr"/>
-      <c r="D1046" t="inlineStr">
-        <is>
-          <t>6.73%</t>
-        </is>
-      </c>
-      <c r="E1046" t="inlineStr"/>
-      <c r="F1046" t="inlineStr"/>
-      <c r="G1046" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1047">
-      <c r="A1047" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1047" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAR/07</t>
-        </is>
-      </c>
-      <c r="C1047" t="inlineStr"/>
-      <c r="D1047" t="inlineStr">
-        <is>
-          <t>20.4%</t>
-        </is>
-      </c>
-      <c r="E1047" t="inlineStr"/>
-      <c r="F1047" t="inlineStr"/>
-      <c r="G1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1048">
-      <c r="A1048" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1048" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C1048" t="inlineStr"/>
-      <c r="D1048" t="inlineStr">
-        <is>
-          <t>242.2</t>
-        </is>
-      </c>
-      <c r="E1048" t="inlineStr"/>
-      <c r="F1048" t="inlineStr"/>
-      <c r="G1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1049">
-      <c r="A1049" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1049" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C1049" t="inlineStr"/>
-      <c r="D1049" t="inlineStr">
-        <is>
-          <t>784.2</t>
-        </is>
-      </c>
-      <c r="E1049" t="inlineStr"/>
-      <c r="F1049" t="inlineStr"/>
-      <c r="G1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1050">
-      <c r="A1050" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1050" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C1050" t="inlineStr"/>
-      <c r="D1050" t="inlineStr">
-        <is>
-          <t>144.5</t>
-        </is>
-      </c>
-      <c r="E1050" t="inlineStr"/>
-      <c r="F1050" t="inlineStr"/>
-      <c r="G1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1051">
-      <c r="A1051" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1051" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1051" t="inlineStr"/>
-      <c r="D1051" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1051" t="inlineStr"/>
-      <c r="F1051" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1051" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1052">
-      <c r="A1052" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1052" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1052" t="inlineStr"/>
-      <c r="D1052" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E1052" t="inlineStr"/>
-      <c r="F1052" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G1052" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1053">
-      <c r="A1053" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1053" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1053" t="inlineStr"/>
-      <c r="D1053" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1053" t="inlineStr"/>
-      <c r="F1053" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1053" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1054">
-      <c r="A1054" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1054" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1054" t="inlineStr"/>
-      <c r="D1054" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E1054" t="inlineStr"/>
-      <c r="F1054" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G1054" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1055">
-      <c r="A1055" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1055" t="inlineStr">
-        <is>
-          <t>CPIFEB</t>
-        </is>
-      </c>
-      <c r="C1055" t="inlineStr"/>
-      <c r="D1055" t="inlineStr">
-        <is>
-          <t>317.67</t>
-        </is>
-      </c>
-      <c r="E1055" t="inlineStr"/>
-      <c r="F1055" t="inlineStr">
-        <is>
-          <t>319.3</t>
-        </is>
-      </c>
-      <c r="G1055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1056">
-      <c r="A1056" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1056" t="inlineStr">
-        <is>
-          <t>CPI s.aFEB</t>
-        </is>
-      </c>
-      <c r="C1056" t="inlineStr"/>
-      <c r="D1056" t="inlineStr">
-        <is>
-          <t>319.086</t>
-        </is>
-      </c>
-      <c r="E1056" t="inlineStr"/>
-      <c r="F1056" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="G1056" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1057">
-      <c r="A1057" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1057" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1057" t="inlineStr"/>
-      <c r="D1057" t="inlineStr">
-        <is>
-          <t>3.614M</t>
-        </is>
-      </c>
-      <c r="E1057" t="inlineStr"/>
-      <c r="F1057" t="inlineStr"/>
-      <c r="G1057" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1058">
-      <c r="A1058" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1058" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1058" t="inlineStr"/>
-      <c r="D1058" t="inlineStr">
-        <is>
-          <t>-1.433M</t>
-        </is>
-      </c>
-      <c r="E1058" t="inlineStr"/>
-      <c r="F1058" t="inlineStr"/>
-      <c r="G1058" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1059">
-      <c r="A1059" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1059" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1059" t="inlineStr"/>
-      <c r="D1059" t="inlineStr">
-        <is>
-          <t>-0.054M</t>
-        </is>
-      </c>
-      <c r="E1059" t="inlineStr"/>
-      <c r="F1059" t="inlineStr"/>
-      <c r="G1059" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1060">
-      <c r="A1060" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1060" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1060" t="inlineStr"/>
-      <c r="D1060" t="inlineStr">
-        <is>
-          <t>1.124M</t>
-        </is>
-      </c>
-      <c r="E1060" t="inlineStr"/>
-      <c r="F1060" t="inlineStr"/>
-      <c r="G1060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1061">
-      <c r="A1061" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1061" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1061" t="inlineStr"/>
-      <c r="D1061" t="inlineStr">
-        <is>
-          <t>-0.587M</t>
-        </is>
-      </c>
-      <c r="E1061" t="inlineStr"/>
-      <c r="F1061" t="inlineStr"/>
-      <c r="G1061" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1062">
-      <c r="A1062" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1062" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1062" t="inlineStr"/>
-      <c r="D1062" t="inlineStr">
-        <is>
-          <t>-1.318M</t>
-        </is>
-      </c>
-      <c r="E1062" t="inlineStr"/>
-      <c r="F1062" t="inlineStr"/>
-      <c r="G1062" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1063">
-      <c r="A1063" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1063" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1063" t="inlineStr"/>
-      <c r="D1063" t="inlineStr">
-        <is>
-          <t>0.464M</t>
-        </is>
-      </c>
-      <c r="E1063" t="inlineStr"/>
-      <c r="F1063" t="inlineStr"/>
-      <c r="G1063" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1064">
-      <c r="A1064" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1064" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1064" t="inlineStr"/>
-      <c r="D1064" t="inlineStr">
-        <is>
-          <t>-0.067M</t>
-        </is>
-      </c>
-      <c r="E1064" t="inlineStr"/>
-      <c r="F1064" t="inlineStr"/>
-      <c r="G1064" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1065">
-      <c r="A1065" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1065" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1065" t="inlineStr"/>
-      <c r="D1065" t="inlineStr">
-        <is>
-          <t>-0.346M</t>
-        </is>
-      </c>
-      <c r="E1065" t="inlineStr"/>
-      <c r="F1065" t="inlineStr"/>
-      <c r="G1065" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1066">
-      <c r="A1066" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1066" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1066" t="inlineStr"/>
-      <c r="D1066" t="inlineStr"/>
-      <c r="E1066" t="inlineStr"/>
-      <c r="F1066" t="inlineStr"/>
-      <c r="G1066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1067">
-      <c r="A1067" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1067" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1067" t="inlineStr"/>
-      <c r="D1067" t="inlineStr">
-        <is>
-          <t>4.632%</t>
-        </is>
-      </c>
-      <c r="E1067" t="inlineStr"/>
-      <c r="F1067" t="inlineStr"/>
-      <c r="G1067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1068">
-      <c r="A1068" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1068" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementFEB</t>
-        </is>
-      </c>
-      <c r="C1068" t="inlineStr"/>
-      <c r="D1068" t="inlineStr">
-        <is>
-          <t>$-129B</t>
-        </is>
-      </c>
-      <c r="E1068" t="inlineStr"/>
-      <c r="F1068" t="inlineStr">
-        <is>
-          <t>$-90.0B</t>
-        </is>
-      </c>
-      <c r="G1068" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1069">
-      <c r="A1069" t="inlineStr">
-        <is>
-          <t>Thursday March 13 2025</t>
-        </is>
-      </c>
-      <c r="B1069" t="inlineStr"/>
-      <c r="C1069" t="inlineStr"/>
-      <c r="D1069" t="inlineStr"/>
-      <c r="E1069" t="inlineStr"/>
-      <c r="F1069" t="inlineStr"/>
-      <c r="G1069" t="inlineStr"/>
-    </row>
-    <row r="1070">
-      <c r="A1070" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1070" t="inlineStr">
-        <is>
-          <t>PPI MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1070" t="inlineStr"/>
-      <c r="D1070" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1070" t="inlineStr"/>
-      <c r="F1070" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1070" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1071">
-      <c r="A1071" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1071" t="inlineStr">
-        <is>
-          <t>Core PPI MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1071" t="inlineStr"/>
-      <c r="D1071" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1071" t="inlineStr"/>
-      <c r="F1071" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1071" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1072">
-      <c r="A1072" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1072" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/08</t>
-        </is>
-      </c>
-      <c r="C1072" t="inlineStr"/>
-      <c r="D1072" t="inlineStr"/>
-      <c r="E1072" t="inlineStr"/>
-      <c r="F1072" t="inlineStr"/>
-      <c r="G1072" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1073">
-      <c r="A1073" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1073" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAR/01</t>
-        </is>
-      </c>
-      <c r="C1073" t="inlineStr"/>
-      <c r="D1073" t="inlineStr"/>
-      <c r="E1073" t="inlineStr"/>
-      <c r="F1073" t="inlineStr"/>
-      <c r="G1073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1074">
-      <c r="A1074" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1074" t="inlineStr">
-        <is>
-          <t>Core PPI YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1074" t="inlineStr"/>
-      <c r="D1074" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E1074" t="inlineStr"/>
-      <c r="F1074" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G1074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1075">
-      <c r="A1075" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1075" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/08</t>
-        </is>
-      </c>
-      <c r="C1075" t="inlineStr"/>
-      <c r="D1075" t="inlineStr"/>
-      <c r="E1075" t="inlineStr"/>
-      <c r="F1075" t="inlineStr"/>
-      <c r="G1075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1076">
-      <c r="A1076" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1076" t="inlineStr">
-        <is>
-          <t>PPIFEB</t>
-        </is>
-      </c>
-      <c r="C1076" t="inlineStr"/>
-      <c r="D1076" t="inlineStr">
-        <is>
-          <t>147.716</t>
-        </is>
-      </c>
-      <c r="E1076" t="inlineStr"/>
-      <c r="F1076" t="inlineStr">
-        <is>
-          <t>148.1</t>
-        </is>
-      </c>
-      <c r="G1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1077">
-      <c r="A1077" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1077" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1077" t="inlineStr"/>
-      <c r="D1077" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1077" t="inlineStr"/>
-      <c r="F1077" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1078">
-      <c r="A1078" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1078" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1078" t="inlineStr"/>
-      <c r="D1078" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1078" t="inlineStr"/>
-      <c r="F1078" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1079">
-      <c r="A1079" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1079" t="inlineStr">
-        <is>
-          <t>PPI YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1079" t="inlineStr"/>
-      <c r="D1079" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E1079" t="inlineStr"/>
-      <c r="F1079" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1080">
-      <c r="A1080" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1080" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1080" t="inlineStr"/>
-      <c r="D1080" t="inlineStr"/>
-      <c r="E1080" t="inlineStr"/>
-      <c r="F1080" t="inlineStr"/>
-      <c r="G1080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1081">
-      <c r="A1081" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1081" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1081" t="inlineStr"/>
-      <c r="D1081" t="inlineStr"/>
-      <c r="E1081" t="inlineStr"/>
-      <c r="F1081" t="inlineStr"/>
-      <c r="G1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1082">
-      <c r="A1082" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1082" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1082" t="inlineStr"/>
-      <c r="D1082" t="inlineStr"/>
-      <c r="E1082" t="inlineStr"/>
-      <c r="F1082" t="inlineStr"/>
-      <c r="G1082" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1083">
-      <c r="A1083" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1083" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/13</t>
-        </is>
-      </c>
-      <c r="C1083" t="inlineStr"/>
-      <c r="D1083" t="inlineStr"/>
-      <c r="E1083" t="inlineStr"/>
-      <c r="F1083" t="inlineStr"/>
-      <c r="G1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1084">
-      <c r="A1084" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1084" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/13</t>
-        </is>
-      </c>
-      <c r="C1084" t="inlineStr"/>
-      <c r="D1084" t="inlineStr"/>
-      <c r="E1084" t="inlineStr"/>
-      <c r="F1084" t="inlineStr"/>
-      <c r="G1084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1085">
-      <c r="A1085" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1085" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1085" t="inlineStr"/>
-      <c r="D1085" t="inlineStr">
-        <is>
-          <t>4.748%</t>
-        </is>
-      </c>
-      <c r="E1085" t="inlineStr"/>
-      <c r="F1085" t="inlineStr"/>
-      <c r="G1085" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1086">
-      <c r="A1086" t="inlineStr">
-        <is>
-          <t>Friday March 14 2025</t>
-        </is>
-      </c>
-      <c r="B1086" t="inlineStr"/>
-      <c r="C1086" t="inlineStr"/>
-      <c r="D1086" t="inlineStr"/>
-      <c r="E1086" t="inlineStr"/>
-      <c r="F1086" t="inlineStr"/>
-      <c r="G1086" t="inlineStr"/>
-    </row>
-    <row r="1087">
-      <c r="A1087" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1087" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/12</t>
-        </is>
-      </c>
-      <c r="C1087" t="inlineStr"/>
-      <c r="D1087" t="inlineStr"/>
-      <c r="E1087" t="inlineStr"/>
-      <c r="F1087" t="inlineStr"/>
-      <c r="G1087" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1088">
-      <c r="A1088" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1088" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1088" t="inlineStr"/>
-      <c r="D1088" t="inlineStr">
-        <is>
-          <t>64.7</t>
-        </is>
-      </c>
-      <c r="E1088" t="inlineStr"/>
-      <c r="F1088" t="inlineStr">
-        <is>
-          <t>63.2</t>
-        </is>
-      </c>
-      <c r="G1088" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1089">
-      <c r="A1089" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1089" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1089" t="inlineStr"/>
-      <c r="D1089" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E1089" t="inlineStr"/>
-      <c r="F1089" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G1089" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1090">
-      <c r="A1090" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1090" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1090" t="inlineStr"/>
-      <c r="D1090" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E1090" t="inlineStr"/>
-      <c r="F1090" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
-      <c r="G1090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1091">
-      <c r="A1091" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1091" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1091" t="inlineStr"/>
-      <c r="D1091" t="inlineStr">
-        <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="E1091" t="inlineStr"/>
-      <c r="F1091" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
-      <c r="G1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1092">
-      <c r="A1092" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1092" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1092" t="inlineStr"/>
-      <c r="D1092" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="E1092" t="inlineStr"/>
-      <c r="F1092" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="G1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1093">
-      <c r="A1093" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1093" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C1093" t="inlineStr"/>
-      <c r="D1093" t="inlineStr"/>
-      <c r="E1093" t="inlineStr"/>
-      <c r="F1093" t="inlineStr"/>
-      <c r="G1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1094">
-      <c r="A1094" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1094" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C1094" t="inlineStr"/>
-      <c r="D1094" t="inlineStr"/>
-      <c r="E1094" t="inlineStr"/>
-      <c r="F1094" t="inlineStr"/>
-      <c r="G1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1095">
-      <c r="A1095" t="inlineStr">
-        <is>
-          <t>Saturday March 15 2025</t>
-        </is>
-      </c>
-      <c r="B1095" t="inlineStr"/>
-      <c r="C1095" t="inlineStr"/>
-      <c r="D1095" t="inlineStr"/>
-      <c r="E1095" t="inlineStr"/>
-      <c r="F1095" t="inlineStr"/>
-      <c r="G1095" t="inlineStr"/>
-    </row>
-    <row r="1096">
-      <c r="A1096" t="inlineStr">
-        <is>
-          <t>Sunday March 16 2025</t>
-        </is>
-      </c>
-      <c r="B1096" t="inlineStr"/>
-      <c r="C1096" t="inlineStr"/>
-      <c r="D1096" t="inlineStr"/>
-      <c r="E1096" t="inlineStr"/>
-      <c r="F1096" t="inlineStr"/>
-      <c r="G1096" t="inlineStr"/>
+      <c r="G1025" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-16.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1096"/>
+  <dimension ref="A1:G1025"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27375,10 +27375,8 @@
       <c r="D990" t="inlineStr"/>
       <c r="E990" t="inlineStr"/>
       <c r="F990" t="inlineStr"/>
-      <c r="G990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G990" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="991">
@@ -27408,10 +27406,8 @@
           <t>56.0K</t>
         </is>
       </c>
-      <c r="G991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G991" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="992">
@@ -27441,10 +27437,8 @@
           <t>$-123B</t>
         </is>
       </c>
-      <c r="G992" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G992" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="993">
@@ -27470,10 +27464,8 @@
           <t>$273.0B</t>
         </is>
       </c>
-      <c r="G993" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G993" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="994">
@@ -27499,10 +27491,8 @@
           <t>$396.0B</t>
         </is>
       </c>
-      <c r="G994" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G994" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="995">
@@ -27532,10 +27522,8 @@
           <t>250.0K</t>
         </is>
       </c>
-      <c r="G995" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G995" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="996">
@@ -27565,10 +27553,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="G996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="997">
@@ -27594,10 +27580,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -27627,10 +27611,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="G998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="999">
@@ -27660,10 +27642,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -27693,10 +27673,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="G1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -27722,10 +27700,8 @@
         </is>
       </c>
       <c r="F1001" t="inlineStr"/>
-      <c r="G1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1002">
@@ -27747,10 +27723,8 @@
       </c>
       <c r="E1002" t="inlineStr"/>
       <c r="F1002" t="inlineStr"/>
-      <c r="G1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -27772,10 +27746,8 @@
       </c>
       <c r="E1003" t="inlineStr"/>
       <c r="F1003" t="inlineStr"/>
-      <c r="G1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -27797,10 +27769,8 @@
       </c>
       <c r="E1004" t="inlineStr"/>
       <c r="F1004" t="inlineStr"/>
-      <c r="G1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1004" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1005">
@@ -27822,10 +27792,8 @@
       </c>
       <c r="E1005" t="inlineStr"/>
       <c r="F1005" t="inlineStr"/>
-      <c r="G1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1005" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1006">
@@ -27843,63 +27811,81 @@
       </c>
       <c r="E1006" t="inlineStr"/>
       <c r="F1006" t="inlineStr"/>
-      <c r="G1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1006" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>Friday March 07 2025</t>
-        </is>
-      </c>
-      <c r="B1007" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade YoYFEB</t>
+        </is>
+      </c>
       <c r="C1007" t="inlineStr"/>
-      <c r="D1007" t="inlineStr"/>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="E1007" t="inlineStr"/>
-      <c r="F1007" t="inlineStr"/>
-      <c r="G1007" t="inlineStr"/>
+      <c r="F1007" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="G1007" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>PPI YoYFEB</t>
         </is>
       </c>
       <c r="C1008" t="inlineStr"/>
-      <c r="D1008" t="inlineStr"/>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="E1008" t="inlineStr"/>
-      <c r="F1008" t="inlineStr"/>
+      <c r="F1008" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="G1008" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAR/05</t>
+          <t>EIA Natural Gas Stocks ChangeMAR/07</t>
         </is>
       </c>
       <c r="C1009" t="inlineStr"/>
-      <c r="D1009" t="inlineStr">
-        <is>
-          <t>$6.77T</t>
-        </is>
-      </c>
+      <c r="D1009" t="inlineStr"/>
       <c r="E1009" t="inlineStr"/>
       <c r="F1009" t="inlineStr"/>
       <c r="G1009" t="inlineStr">
@@ -27911,12 +27897,12 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1010" t="inlineStr"/>
@@ -27925,198 +27911,126 @@
       <c r="F1010" t="inlineStr"/>
       <c r="G1010" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsFEB</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1011" t="inlineStr"/>
-      <c r="D1011" t="inlineStr">
-        <is>
-          <t>143K</t>
-        </is>
-      </c>
-      <c r="E1011" t="inlineStr">
-        <is>
-          <t>160K</t>
-        </is>
-      </c>
-      <c r="F1011" t="inlineStr">
-        <is>
-          <t>150.0K</t>
-        </is>
-      </c>
+      <c r="D1011" t="inlineStr"/>
+      <c r="E1011" t="inlineStr"/>
+      <c r="F1011" t="inlineStr"/>
       <c r="G1011" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Unemployment RateFEB</t>
+          <t>15-Year Mortgage RateMAR/13</t>
         </is>
       </c>
       <c r="C1012" t="inlineStr"/>
-      <c r="D1012" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E1012" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="F1012" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+      <c r="D1012" t="inlineStr"/>
+      <c r="E1012" t="inlineStr"/>
+      <c r="F1012" t="inlineStr"/>
       <c r="G1012" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMFEB</t>
+          <t>30-Year Mortgage RateMAR/13</t>
         </is>
       </c>
       <c r="C1013" t="inlineStr"/>
-      <c r="D1013" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1013" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1013" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D1013" t="inlineStr"/>
+      <c r="E1013" t="inlineStr"/>
+      <c r="F1013" t="inlineStr"/>
       <c r="G1013" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYFEB</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1014" t="inlineStr"/>
       <c r="D1014" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1014" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F1014" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+          <t>4.748%</t>
+        </is>
+      </c>
+      <c r="E1014" t="inlineStr"/>
+      <c r="F1014" t="inlineStr"/>
       <c r="G1014" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1015" t="inlineStr">
-        <is>
-          <t>Participation RateFEB</t>
-        </is>
-      </c>
+          <t>Friday March 14 2025</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr"/>
       <c r="C1015" t="inlineStr"/>
-      <c r="D1015" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="D1015" t="inlineStr"/>
       <c r="E1015" t="inlineStr"/>
-      <c r="F1015" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
-      <c r="G1015" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F1015" t="inlineStr"/>
+      <c r="G1015" t="inlineStr"/>
     </row>
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Average Weekly HoursFEB</t>
+          <t>Fed Balance SheetMAR/12</t>
         </is>
       </c>
       <c r="C1016" t="inlineStr"/>
-      <c r="D1016" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="E1016" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F1016" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
+      <c r="D1016" t="inlineStr"/>
+      <c r="E1016" t="inlineStr"/>
+      <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr">
         <is>
           <t>3</t>
@@ -28126,57 +28040,53 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Government PayrollsFEB</t>
+          <t>Michigan Consumer Sentiment PrelMAR</t>
         </is>
       </c>
       <c r="C1017" t="inlineStr"/>
       <c r="D1017" t="inlineStr">
         <is>
-          <t>32K</t>
+          <t>64.7</t>
         </is>
       </c>
       <c r="E1017" t="inlineStr"/>
       <c r="F1017" t="inlineStr">
         <is>
-          <t>-20.0K</t>
+          <t>63.2</t>
         </is>
       </c>
       <c r="G1017" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsFEB</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C1018" t="inlineStr"/>
       <c r="D1018" t="inlineStr">
         <is>
-          <t>3K</t>
-        </is>
-      </c>
-      <c r="E1018" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E1018" t="inlineStr"/>
       <c r="F1018" t="inlineStr">
         <is>
-          <t>6.0K</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="G1018" t="inlineStr">
@@ -28188,28 +28098,24 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateFEB</t>
+          <t>Michigan Consumer Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C1019" t="inlineStr"/>
       <c r="D1019" t="inlineStr">
         <is>
-          <t>111K</t>
-        </is>
-      </c>
-      <c r="E1019" t="inlineStr">
-        <is>
-          <t>142K</t>
-        </is>
-      </c>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E1019" t="inlineStr"/>
       <c r="F1019" t="inlineStr">
         <is>
-          <t>170.0K</t>
+          <t>63.5</t>
         </is>
       </c>
       <c r="G1019" t="inlineStr">
@@ -28221,24 +28127,24 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateFEB</t>
+          <t>Michigan Current Conditions PrelMAR</t>
         </is>
       </c>
       <c r="C1020" t="inlineStr"/>
       <c r="D1020" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>65.7</t>
         </is>
       </c>
       <c r="E1020" t="inlineStr"/>
       <c r="F1020" t="inlineStr">
         <is>
-          <t>7.6%</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="G1020" t="inlineStr">
@@ -28250,33 +28156,41 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Michigan Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C1021" t="inlineStr"/>
-      <c r="D1021" t="inlineStr"/>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="E1021" t="inlineStr"/>
-      <c r="F1021" t="inlineStr"/>
+      <c r="F1021" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="G1021" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>09:15 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Baker Hughes Oil Rig CountMAR/14</t>
         </is>
       </c>
       <c r="C1022" t="inlineStr"/>
@@ -28285,19 +28199,19 @@
       <c r="F1022" t="inlineStr"/>
       <c r="G1022" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>10:50 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Baker Hughes Total Rigs CountMAR/14</t>
         </is>
       </c>
       <c r="C1023" t="inlineStr"/>
@@ -28306,1758 +28220,35 @@
       <c r="F1023" t="inlineStr"/>
       <c r="G1023" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
-        </is>
-      </c>
-      <c r="B1024" t="inlineStr">
-        <is>
-          <t>Fed Chair Powell Speech</t>
-        </is>
-      </c>
+          <t>Saturday March 15 2025</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr"/>
       <c r="C1024" t="inlineStr"/>
       <c r="D1024" t="inlineStr"/>
       <c r="E1024" t="inlineStr"/>
       <c r="F1024" t="inlineStr"/>
-      <c r="G1024" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="G1024" t="inlineStr"/>
     </row>
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1025" t="inlineStr">
-        <is>
-          <t>Fed Kugler Speech</t>
-        </is>
-      </c>
+          <t>Sunday March 16 2025</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr"/>
       <c r="C1025" t="inlineStr"/>
       <c r="D1025" t="inlineStr"/>
       <c r="E1025" t="inlineStr"/>
       <c r="F1025" t="inlineStr"/>
-      <c r="G1025" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1026">
-      <c r="A1026" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1026" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/07</t>
-        </is>
-      </c>
-      <c r="C1026" t="inlineStr"/>
-      <c r="D1026" t="inlineStr">
-        <is>
-          <t>489</t>
-        </is>
-      </c>
-      <c r="E1026" t="inlineStr"/>
-      <c r="F1026" t="inlineStr"/>
-      <c r="G1026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1027">
-      <c r="A1027" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1027" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/07</t>
-        </is>
-      </c>
-      <c r="C1027" t="inlineStr"/>
-      <c r="D1027" t="inlineStr">
-        <is>
-          <t>593</t>
-        </is>
-      </c>
-      <c r="E1027" t="inlineStr"/>
-      <c r="F1027" t="inlineStr"/>
-      <c r="G1027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1028">
-      <c r="A1028" t="inlineStr"/>
-      <c r="B1028" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1028" t="inlineStr"/>
-      <c r="D1028" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1028" t="inlineStr"/>
-      <c r="F1028" t="inlineStr"/>
-      <c r="G1028" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1029">
-      <c r="A1029" t="inlineStr"/>
-      <c r="B1029" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1029" t="inlineStr"/>
-      <c r="D1029" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1029" t="inlineStr"/>
-      <c r="F1029" t="inlineStr"/>
-      <c r="G1029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1030">
-      <c r="A1030" t="inlineStr">
-        <is>
-          <t>Saturday March 08 2025</t>
-        </is>
-      </c>
-      <c r="B1030" t="inlineStr"/>
-      <c r="C1030" t="inlineStr"/>
-      <c r="D1030" t="inlineStr"/>
-      <c r="E1030" t="inlineStr"/>
-      <c r="F1030" t="inlineStr"/>
-      <c r="G1030" t="inlineStr"/>
-    </row>
-    <row r="1031">
-      <c r="A1031" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1031" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeJAN</t>
-        </is>
-      </c>
-      <c r="C1031" t="inlineStr"/>
-      <c r="D1031" t="inlineStr">
-        <is>
-          <t>$40.85B</t>
-        </is>
-      </c>
-      <c r="E1031" t="inlineStr">
-        <is>
-          <t>$14.5B</t>
-        </is>
-      </c>
-      <c r="F1031" t="inlineStr">
-        <is>
-          <t>$ -3.0B</t>
-        </is>
-      </c>
-      <c r="G1031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1032">
-      <c r="A1032" t="inlineStr">
-        <is>
-          <t>Sunday March 09 2025</t>
-        </is>
-      </c>
-      <c r="B1032" t="inlineStr"/>
-      <c r="C1032" t="inlineStr"/>
-      <c r="D1032" t="inlineStr"/>
-      <c r="E1032" t="inlineStr"/>
-      <c r="F1032" t="inlineStr"/>
-      <c r="G1032" t="inlineStr"/>
-    </row>
-    <row r="1033">
-      <c r="A1033" t="inlineStr">
-        <is>
-          <t>Monday March 10 2025</t>
-        </is>
-      </c>
-      <c r="B1033" t="inlineStr"/>
-      <c r="C1033" t="inlineStr"/>
-      <c r="D1033" t="inlineStr"/>
-      <c r="E1033" t="inlineStr"/>
-      <c r="F1033" t="inlineStr"/>
-      <c r="G1033" t="inlineStr"/>
-    </row>
-    <row r="1034">
-      <c r="A1034" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1034" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsFEB</t>
-        </is>
-      </c>
-      <c r="C1034" t="inlineStr"/>
-      <c r="D1034" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E1034" t="inlineStr"/>
-      <c r="F1034" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G1034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1035">
-      <c r="A1035" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1035" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1035" t="inlineStr"/>
-      <c r="D1035" t="inlineStr">
-        <is>
-          <t>4.210%</t>
-        </is>
-      </c>
-      <c r="E1035" t="inlineStr"/>
-      <c r="F1035" t="inlineStr"/>
-      <c r="G1035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1036">
-      <c r="A1036" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1036" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1036" t="inlineStr"/>
-      <c r="D1036" t="inlineStr">
-        <is>
-          <t>4.135%</t>
-        </is>
-      </c>
-      <c r="E1036" t="inlineStr"/>
-      <c r="F1036" t="inlineStr"/>
-      <c r="G1036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1037">
-      <c r="A1037" t="inlineStr">
-        <is>
-          <t>Tuesday March 11 2025</t>
-        </is>
-      </c>
-      <c r="B1037" t="inlineStr"/>
-      <c r="C1037" t="inlineStr"/>
-      <c r="D1037" t="inlineStr"/>
-      <c r="E1037" t="inlineStr"/>
-      <c r="F1037" t="inlineStr"/>
-      <c r="G1037" t="inlineStr"/>
-    </row>
-    <row r="1038">
-      <c r="A1038" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1038" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexFEB</t>
-        </is>
-      </c>
-      <c r="C1038" t="inlineStr"/>
-      <c r="D1038" t="inlineStr">
-        <is>
-          <t>102.8</t>
-        </is>
-      </c>
-      <c r="E1038" t="inlineStr"/>
-      <c r="F1038" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="G1038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1039">
-      <c r="A1039" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B1039" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAR/08</t>
-        </is>
-      </c>
-      <c r="C1039" t="inlineStr"/>
-      <c r="D1039" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E1039" t="inlineStr"/>
-      <c r="F1039" t="inlineStr"/>
-      <c r="G1039" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1040">
-      <c r="A1040" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1040" t="inlineStr">
-        <is>
-          <t>JOLTs Job OpeningsJAN</t>
-        </is>
-      </c>
-      <c r="C1040" t="inlineStr"/>
-      <c r="D1040" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
-      <c r="E1040" t="inlineStr"/>
-      <c r="F1040" t="inlineStr">
-        <is>
-          <t>7.5M</t>
-        </is>
-      </c>
-      <c r="G1040" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1041">
-      <c r="A1041" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1041" t="inlineStr">
-        <is>
-          <t>JOLTs Job QuitsJAN</t>
-        </is>
-      </c>
-      <c r="C1041" t="inlineStr"/>
-      <c r="D1041" t="inlineStr">
-        <is>
-          <t>3.197M</t>
-        </is>
-      </c>
-      <c r="E1041" t="inlineStr"/>
-      <c r="F1041" t="inlineStr">
-        <is>
-          <t>3.21M</t>
-        </is>
-      </c>
-      <c r="G1041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1042">
-      <c r="A1042" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1042" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C1042" t="inlineStr"/>
-      <c r="D1042" t="inlineStr"/>
-      <c r="E1042" t="inlineStr"/>
-      <c r="F1042" t="inlineStr"/>
-      <c r="G1042" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1043">
-      <c r="A1043" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1043" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1043" t="inlineStr"/>
-      <c r="D1043" t="inlineStr">
-        <is>
-          <t>4.300%</t>
-        </is>
-      </c>
-      <c r="E1043" t="inlineStr"/>
-      <c r="F1043" t="inlineStr"/>
-      <c r="G1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1044">
-      <c r="A1044" t="inlineStr">
-        <is>
-          <t>Wednesday March 12 2025</t>
-        </is>
-      </c>
-      <c r="B1044" t="inlineStr"/>
-      <c r="C1044" t="inlineStr"/>
-      <c r="D1044" t="inlineStr"/>
-      <c r="E1044" t="inlineStr"/>
-      <c r="F1044" t="inlineStr"/>
-      <c r="G1044" t="inlineStr"/>
-    </row>
-    <row r="1045">
-      <c r="A1045" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1045" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1045" t="inlineStr"/>
-      <c r="D1045" t="inlineStr">
-        <is>
-          <t>-1.455M</t>
-        </is>
-      </c>
-      <c r="E1045" t="inlineStr"/>
-      <c r="F1045" t="inlineStr"/>
-      <c r="G1045" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1046">
-      <c r="A1046" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1046" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAR/07</t>
-        </is>
-      </c>
-      <c r="C1046" t="inlineStr"/>
-      <c r="D1046" t="inlineStr">
-        <is>
-          <t>6.73%</t>
-        </is>
-      </c>
-      <c r="E1046" t="inlineStr"/>
-      <c r="F1046" t="inlineStr"/>
-      <c r="G1046" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1047">
-      <c r="A1047" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1047" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAR/07</t>
-        </is>
-      </c>
-      <c r="C1047" t="inlineStr"/>
-      <c r="D1047" t="inlineStr">
-        <is>
-          <t>20.4%</t>
-        </is>
-      </c>
-      <c r="E1047" t="inlineStr"/>
-      <c r="F1047" t="inlineStr"/>
-      <c r="G1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1048">
-      <c r="A1048" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1048" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C1048" t="inlineStr"/>
-      <c r="D1048" t="inlineStr">
-        <is>
-          <t>242.2</t>
-        </is>
-      </c>
-      <c r="E1048" t="inlineStr"/>
-      <c r="F1048" t="inlineStr"/>
-      <c r="G1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1049">
-      <c r="A1049" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1049" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C1049" t="inlineStr"/>
-      <c r="D1049" t="inlineStr">
-        <is>
-          <t>784.2</t>
-        </is>
-      </c>
-      <c r="E1049" t="inlineStr"/>
-      <c r="F1049" t="inlineStr"/>
-      <c r="G1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1050">
-      <c r="A1050" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1050" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C1050" t="inlineStr"/>
-      <c r="D1050" t="inlineStr">
-        <is>
-          <t>144.5</t>
-        </is>
-      </c>
-      <c r="E1050" t="inlineStr"/>
-      <c r="F1050" t="inlineStr"/>
-      <c r="G1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1051">
-      <c r="A1051" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1051" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1051" t="inlineStr"/>
-      <c r="D1051" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1051" t="inlineStr"/>
-      <c r="F1051" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1051" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1052">
-      <c r="A1052" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1052" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1052" t="inlineStr"/>
-      <c r="D1052" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E1052" t="inlineStr"/>
-      <c r="F1052" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G1052" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1053">
-      <c r="A1053" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1053" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1053" t="inlineStr"/>
-      <c r="D1053" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1053" t="inlineStr"/>
-      <c r="F1053" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1053" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1054">
-      <c r="A1054" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1054" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1054" t="inlineStr"/>
-      <c r="D1054" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E1054" t="inlineStr"/>
-      <c r="F1054" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G1054" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1055">
-      <c r="A1055" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1055" t="inlineStr">
-        <is>
-          <t>CPIFEB</t>
-        </is>
-      </c>
-      <c r="C1055" t="inlineStr"/>
-      <c r="D1055" t="inlineStr">
-        <is>
-          <t>317.67</t>
-        </is>
-      </c>
-      <c r="E1055" t="inlineStr"/>
-      <c r="F1055" t="inlineStr">
-        <is>
-          <t>319.3</t>
-        </is>
-      </c>
-      <c r="G1055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1056">
-      <c r="A1056" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1056" t="inlineStr">
-        <is>
-          <t>CPI s.aFEB</t>
-        </is>
-      </c>
-      <c r="C1056" t="inlineStr"/>
-      <c r="D1056" t="inlineStr">
-        <is>
-          <t>319.086</t>
-        </is>
-      </c>
-      <c r="E1056" t="inlineStr"/>
-      <c r="F1056" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="G1056" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1057">
-      <c r="A1057" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1057" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1057" t="inlineStr"/>
-      <c r="D1057" t="inlineStr">
-        <is>
-          <t>3.614M</t>
-        </is>
-      </c>
-      <c r="E1057" t="inlineStr"/>
-      <c r="F1057" t="inlineStr"/>
-      <c r="G1057" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1058">
-      <c r="A1058" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1058" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1058" t="inlineStr"/>
-      <c r="D1058" t="inlineStr">
-        <is>
-          <t>-1.433M</t>
-        </is>
-      </c>
-      <c r="E1058" t="inlineStr"/>
-      <c r="F1058" t="inlineStr"/>
-      <c r="G1058" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1059">
-      <c r="A1059" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1059" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1059" t="inlineStr"/>
-      <c r="D1059" t="inlineStr">
-        <is>
-          <t>-0.054M</t>
-        </is>
-      </c>
-      <c r="E1059" t="inlineStr"/>
-      <c r="F1059" t="inlineStr"/>
-      <c r="G1059" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1060">
-      <c r="A1060" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1060" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1060" t="inlineStr"/>
-      <c r="D1060" t="inlineStr">
-        <is>
-          <t>1.124M</t>
-        </is>
-      </c>
-      <c r="E1060" t="inlineStr"/>
-      <c r="F1060" t="inlineStr"/>
-      <c r="G1060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1061">
-      <c r="A1061" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1061" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1061" t="inlineStr"/>
-      <c r="D1061" t="inlineStr">
-        <is>
-          <t>-0.587M</t>
-        </is>
-      </c>
-      <c r="E1061" t="inlineStr"/>
-      <c r="F1061" t="inlineStr"/>
-      <c r="G1061" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1062">
-      <c r="A1062" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1062" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1062" t="inlineStr"/>
-      <c r="D1062" t="inlineStr">
-        <is>
-          <t>-1.318M</t>
-        </is>
-      </c>
-      <c r="E1062" t="inlineStr"/>
-      <c r="F1062" t="inlineStr"/>
-      <c r="G1062" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1063">
-      <c r="A1063" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1063" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1063" t="inlineStr"/>
-      <c r="D1063" t="inlineStr">
-        <is>
-          <t>0.464M</t>
-        </is>
-      </c>
-      <c r="E1063" t="inlineStr"/>
-      <c r="F1063" t="inlineStr"/>
-      <c r="G1063" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1064">
-      <c r="A1064" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1064" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1064" t="inlineStr"/>
-      <c r="D1064" t="inlineStr">
-        <is>
-          <t>-0.067M</t>
-        </is>
-      </c>
-      <c r="E1064" t="inlineStr"/>
-      <c r="F1064" t="inlineStr"/>
-      <c r="G1064" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1065">
-      <c r="A1065" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1065" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1065" t="inlineStr"/>
-      <c r="D1065" t="inlineStr">
-        <is>
-          <t>-0.346M</t>
-        </is>
-      </c>
-      <c r="E1065" t="inlineStr"/>
-      <c r="F1065" t="inlineStr"/>
-      <c r="G1065" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1066">
-      <c r="A1066" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1066" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1066" t="inlineStr"/>
-      <c r="D1066" t="inlineStr"/>
-      <c r="E1066" t="inlineStr"/>
-      <c r="F1066" t="inlineStr"/>
-      <c r="G1066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1067">
-      <c r="A1067" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1067" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1067" t="inlineStr"/>
-      <c r="D1067" t="inlineStr">
-        <is>
-          <t>4.632%</t>
-        </is>
-      </c>
-      <c r="E1067" t="inlineStr"/>
-      <c r="F1067" t="inlineStr"/>
-      <c r="G1067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1068">
-      <c r="A1068" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1068" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementFEB</t>
-        </is>
-      </c>
-      <c r="C1068" t="inlineStr"/>
-      <c r="D1068" t="inlineStr">
-        <is>
-          <t>$-129B</t>
-        </is>
-      </c>
-      <c r="E1068" t="inlineStr"/>
-      <c r="F1068" t="inlineStr">
-        <is>
-          <t>$-90.0B</t>
-        </is>
-      </c>
-      <c r="G1068" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1069">
-      <c r="A1069" t="inlineStr">
-        <is>
-          <t>Thursday March 13 2025</t>
-        </is>
-      </c>
-      <c r="B1069" t="inlineStr"/>
-      <c r="C1069" t="inlineStr"/>
-      <c r="D1069" t="inlineStr"/>
-      <c r="E1069" t="inlineStr"/>
-      <c r="F1069" t="inlineStr"/>
-      <c r="G1069" t="inlineStr"/>
-    </row>
-    <row r="1070">
-      <c r="A1070" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1070" t="inlineStr">
-        <is>
-          <t>PPI MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1070" t="inlineStr"/>
-      <c r="D1070" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1070" t="inlineStr"/>
-      <c r="F1070" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1070" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1071">
-      <c r="A1071" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1071" t="inlineStr">
-        <is>
-          <t>Core PPI MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1071" t="inlineStr"/>
-      <c r="D1071" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1071" t="inlineStr"/>
-      <c r="F1071" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1071" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1072">
-      <c r="A1072" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1072" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/08</t>
-        </is>
-      </c>
-      <c r="C1072" t="inlineStr"/>
-      <c r="D1072" t="inlineStr"/>
-      <c r="E1072" t="inlineStr"/>
-      <c r="F1072" t="inlineStr"/>
-      <c r="G1072" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1073">
-      <c r="A1073" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1073" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAR/01</t>
-        </is>
-      </c>
-      <c r="C1073" t="inlineStr"/>
-      <c r="D1073" t="inlineStr"/>
-      <c r="E1073" t="inlineStr"/>
-      <c r="F1073" t="inlineStr"/>
-      <c r="G1073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1074">
-      <c r="A1074" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1074" t="inlineStr">
-        <is>
-          <t>Core PPI YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1074" t="inlineStr"/>
-      <c r="D1074" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E1074" t="inlineStr"/>
-      <c r="F1074" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G1074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1075">
-      <c r="A1075" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1075" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/08</t>
-        </is>
-      </c>
-      <c r="C1075" t="inlineStr"/>
-      <c r="D1075" t="inlineStr"/>
-      <c r="E1075" t="inlineStr"/>
-      <c r="F1075" t="inlineStr"/>
-      <c r="G1075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1076">
-      <c r="A1076" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1076" t="inlineStr">
-        <is>
-          <t>PPIFEB</t>
-        </is>
-      </c>
-      <c r="C1076" t="inlineStr"/>
-      <c r="D1076" t="inlineStr">
-        <is>
-          <t>147.716</t>
-        </is>
-      </c>
-      <c r="E1076" t="inlineStr"/>
-      <c r="F1076" t="inlineStr">
-        <is>
-          <t>148.1</t>
-        </is>
-      </c>
-      <c r="G1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1077">
-      <c r="A1077" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1077" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1077" t="inlineStr"/>
-      <c r="D1077" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1077" t="inlineStr"/>
-      <c r="F1077" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1078">
-      <c r="A1078" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1078" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1078" t="inlineStr"/>
-      <c r="D1078" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1078" t="inlineStr"/>
-      <c r="F1078" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1079">
-      <c r="A1079" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1079" t="inlineStr">
-        <is>
-          <t>PPI YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1079" t="inlineStr"/>
-      <c r="D1079" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E1079" t="inlineStr"/>
-      <c r="F1079" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1080">
-      <c r="A1080" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1080" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1080" t="inlineStr"/>
-      <c r="D1080" t="inlineStr"/>
-      <c r="E1080" t="inlineStr"/>
-      <c r="F1080" t="inlineStr"/>
-      <c r="G1080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1081">
-      <c r="A1081" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1081" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1081" t="inlineStr"/>
-      <c r="D1081" t="inlineStr"/>
-      <c r="E1081" t="inlineStr"/>
-      <c r="F1081" t="inlineStr"/>
-      <c r="G1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1082">
-      <c r="A1082" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1082" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1082" t="inlineStr"/>
-      <c r="D1082" t="inlineStr"/>
-      <c r="E1082" t="inlineStr"/>
-      <c r="F1082" t="inlineStr"/>
-      <c r="G1082" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1083">
-      <c r="A1083" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1083" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/13</t>
-        </is>
-      </c>
-      <c r="C1083" t="inlineStr"/>
-      <c r="D1083" t="inlineStr"/>
-      <c r="E1083" t="inlineStr"/>
-      <c r="F1083" t="inlineStr"/>
-      <c r="G1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1084">
-      <c r="A1084" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1084" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/13</t>
-        </is>
-      </c>
-      <c r="C1084" t="inlineStr"/>
-      <c r="D1084" t="inlineStr"/>
-      <c r="E1084" t="inlineStr"/>
-      <c r="F1084" t="inlineStr"/>
-      <c r="G1084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1085">
-      <c r="A1085" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1085" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1085" t="inlineStr"/>
-      <c r="D1085" t="inlineStr">
-        <is>
-          <t>4.748%</t>
-        </is>
-      </c>
-      <c r="E1085" t="inlineStr"/>
-      <c r="F1085" t="inlineStr"/>
-      <c r="G1085" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1086">
-      <c r="A1086" t="inlineStr">
-        <is>
-          <t>Friday March 14 2025</t>
-        </is>
-      </c>
-      <c r="B1086" t="inlineStr"/>
-      <c r="C1086" t="inlineStr"/>
-      <c r="D1086" t="inlineStr"/>
-      <c r="E1086" t="inlineStr"/>
-      <c r="F1086" t="inlineStr"/>
-      <c r="G1086" t="inlineStr"/>
-    </row>
-    <row r="1087">
-      <c r="A1087" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1087" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/12</t>
-        </is>
-      </c>
-      <c r="C1087" t="inlineStr"/>
-      <c r="D1087" t="inlineStr"/>
-      <c r="E1087" t="inlineStr"/>
-      <c r="F1087" t="inlineStr"/>
-      <c r="G1087" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1088">
-      <c r="A1088" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1088" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1088" t="inlineStr"/>
-      <c r="D1088" t="inlineStr">
-        <is>
-          <t>64.7</t>
-        </is>
-      </c>
-      <c r="E1088" t="inlineStr"/>
-      <c r="F1088" t="inlineStr">
-        <is>
-          <t>63.2</t>
-        </is>
-      </c>
-      <c r="G1088" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1089">
-      <c r="A1089" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1089" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1089" t="inlineStr"/>
-      <c r="D1089" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E1089" t="inlineStr"/>
-      <c r="F1089" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G1089" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1090">
-      <c r="A1090" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1090" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1090" t="inlineStr"/>
-      <c r="D1090" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E1090" t="inlineStr"/>
-      <c r="F1090" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
-      <c r="G1090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1091">
-      <c r="A1091" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1091" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1091" t="inlineStr"/>
-      <c r="D1091" t="inlineStr">
-        <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="E1091" t="inlineStr"/>
-      <c r="F1091" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
-      <c r="G1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1092">
-      <c r="A1092" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1092" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1092" t="inlineStr"/>
-      <c r="D1092" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="E1092" t="inlineStr"/>
-      <c r="F1092" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="G1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1093">
-      <c r="A1093" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1093" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C1093" t="inlineStr"/>
-      <c r="D1093" t="inlineStr"/>
-      <c r="E1093" t="inlineStr"/>
-      <c r="F1093" t="inlineStr"/>
-      <c r="G1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1094">
-      <c r="A1094" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1094" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C1094" t="inlineStr"/>
-      <c r="D1094" t="inlineStr"/>
-      <c r="E1094" t="inlineStr"/>
-      <c r="F1094" t="inlineStr"/>
-      <c r="G1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1095">
-      <c r="A1095" t="inlineStr">
-        <is>
-          <t>Saturday March 15 2025</t>
-        </is>
-      </c>
-      <c r="B1095" t="inlineStr"/>
-      <c r="C1095" t="inlineStr"/>
-      <c r="D1095" t="inlineStr"/>
-      <c r="E1095" t="inlineStr"/>
-      <c r="F1095" t="inlineStr"/>
-      <c r="G1095" t="inlineStr"/>
-    </row>
-    <row r="1096">
-      <c r="A1096" t="inlineStr">
-        <is>
-          <t>Sunday March 16 2025</t>
-        </is>
-      </c>
-      <c r="B1096" t="inlineStr"/>
-      <c r="C1096" t="inlineStr"/>
-      <c r="D1096" t="inlineStr"/>
-      <c r="E1096" t="inlineStr"/>
-      <c r="F1096" t="inlineStr"/>
-      <c r="G1096" t="inlineStr"/>
+      <c r="G1025" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-16.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1096"/>
+  <dimension ref="A1:G1025"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27375,10 +27375,8 @@
       <c r="D990" t="inlineStr"/>
       <c r="E990" t="inlineStr"/>
       <c r="F990" t="inlineStr"/>
-      <c r="G990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G990" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="991">
@@ -27408,10 +27406,8 @@
           <t>56.0K</t>
         </is>
       </c>
-      <c r="G991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G991" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="992">
@@ -27445,10 +27441,8 @@
           <t>$-123B</t>
         </is>
       </c>
-      <c r="G992" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G992" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="993">
@@ -27478,10 +27472,8 @@
           <t>$273.0B</t>
         </is>
       </c>
-      <c r="G993" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G993" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="994">
@@ -27511,10 +27503,8 @@
           <t>$396.0B</t>
         </is>
       </c>
-      <c r="G994" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G994" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="995">
@@ -27548,10 +27538,8 @@
           <t>250.0K</t>
         </is>
       </c>
-      <c r="G995" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G995" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="996">
@@ -27585,10 +27573,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="G996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="997">
@@ -27618,10 +27604,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -27655,10 +27639,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="G998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="999">
@@ -27692,10 +27674,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -27721,10 +27701,8 @@
       </c>
       <c r="E1000" t="inlineStr"/>
       <c r="F1000" t="inlineStr"/>
-      <c r="G1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -27758,10 +27736,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="G1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1002">
@@ -27791,10 +27767,8 @@
         </is>
       </c>
       <c r="F1002" t="inlineStr"/>
-      <c r="G1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -27816,10 +27790,8 @@
       </c>
       <c r="E1003" t="inlineStr"/>
       <c r="F1003" t="inlineStr"/>
-      <c r="G1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -27841,10 +27813,8 @@
       </c>
       <c r="E1004" t="inlineStr"/>
       <c r="F1004" t="inlineStr"/>
-      <c r="G1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1004" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1005">
@@ -27866,10 +27836,8 @@
       </c>
       <c r="E1005" t="inlineStr"/>
       <c r="F1005" t="inlineStr"/>
-      <c r="G1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1005" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1006">
@@ -27891,61 +27859,83 @@
       </c>
       <c r="E1006" t="inlineStr"/>
       <c r="F1006" t="inlineStr"/>
-      <c r="G1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1006" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>Friday March 07 2025</t>
-        </is>
-      </c>
-      <c r="B1007" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade YoYFEB</t>
+        </is>
+      </c>
       <c r="C1007" t="inlineStr"/>
-      <c r="D1007" t="inlineStr"/>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="E1007" t="inlineStr"/>
-      <c r="F1007" t="inlineStr"/>
-      <c r="G1007" t="inlineStr"/>
+      <c r="F1007" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
+      <c r="G1007" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>PPI YoYFEB</t>
         </is>
       </c>
       <c r="C1008" t="inlineStr"/>
-      <c r="D1008" t="inlineStr"/>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="E1008" t="inlineStr"/>
-      <c r="F1008" t="inlineStr"/>
+      <c r="F1008" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="G1008" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAR/05</t>
+          <t>EIA Natural Gas Stocks ChangeMAR/07</t>
         </is>
       </c>
       <c r="C1009" t="inlineStr"/>
       <c r="D1009" t="inlineStr">
         <is>
-          <t>$6.77T</t>
+          <t>-80Bcf</t>
         </is>
       </c>
       <c r="E1009" t="inlineStr"/>
@@ -27959,12 +27949,12 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1010" t="inlineStr"/>
@@ -27973,198 +27963,134 @@
       <c r="F1010" t="inlineStr"/>
       <c r="G1010" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsFEB</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1011" t="inlineStr"/>
-      <c r="D1011" t="inlineStr">
-        <is>
-          <t>143K</t>
-        </is>
-      </c>
-      <c r="E1011" t="inlineStr">
-        <is>
-          <t>160K</t>
-        </is>
-      </c>
-      <c r="F1011" t="inlineStr">
-        <is>
-          <t>150.0K</t>
-        </is>
-      </c>
+      <c r="D1011" t="inlineStr"/>
+      <c r="E1011" t="inlineStr"/>
+      <c r="F1011" t="inlineStr"/>
       <c r="G1011" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Unemployment RateFEB</t>
+          <t>15-Year Mortgage RateMAR/13</t>
         </is>
       </c>
       <c r="C1012" t="inlineStr"/>
       <c r="D1012" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E1012" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="F1012" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+          <t>5.79%</t>
+        </is>
+      </c>
+      <c r="E1012" t="inlineStr"/>
+      <c r="F1012" t="inlineStr"/>
       <c r="G1012" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMFEB</t>
+          <t>30-Year Mortgage RateMAR/13</t>
         </is>
       </c>
       <c r="C1013" t="inlineStr"/>
       <c r="D1013" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1013" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1013" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>6.63%</t>
+        </is>
+      </c>
+      <c r="E1013" t="inlineStr"/>
+      <c r="F1013" t="inlineStr"/>
       <c r="G1013" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYFEB</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1014" t="inlineStr"/>
       <c r="D1014" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1014" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F1014" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+          <t>4.748%</t>
+        </is>
+      </c>
+      <c r="E1014" t="inlineStr"/>
+      <c r="F1014" t="inlineStr"/>
       <c r="G1014" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1015" t="inlineStr">
-        <is>
-          <t>Participation RateFEB</t>
-        </is>
-      </c>
+          <t>Friday March 14 2025</t>
+        </is>
+      </c>
+      <c r="B1015" t="inlineStr"/>
       <c r="C1015" t="inlineStr"/>
-      <c r="D1015" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="D1015" t="inlineStr"/>
       <c r="E1015" t="inlineStr"/>
-      <c r="F1015" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
-      <c r="G1015" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F1015" t="inlineStr"/>
+      <c r="G1015" t="inlineStr"/>
     </row>
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Average Weekly HoursFEB</t>
+          <t>Fed Balance SheetMAR/12</t>
         </is>
       </c>
       <c r="C1016" t="inlineStr"/>
-      <c r="D1016" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="E1016" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F1016" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
+      <c r="D1016" t="inlineStr"/>
+      <c r="E1016" t="inlineStr"/>
+      <c r="F1016" t="inlineStr"/>
       <c r="G1016" t="inlineStr">
         <is>
           <t>3</t>
@@ -28174,57 +28100,53 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Government PayrollsFEB</t>
+          <t>Michigan Consumer Sentiment PrelMAR</t>
         </is>
       </c>
       <c r="C1017" t="inlineStr"/>
       <c r="D1017" t="inlineStr">
         <is>
-          <t>32K</t>
+          <t>64.7</t>
         </is>
       </c>
       <c r="E1017" t="inlineStr"/>
       <c r="F1017" t="inlineStr">
         <is>
-          <t>-20.0K</t>
+          <t>63.2</t>
         </is>
       </c>
       <c r="G1017" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsFEB</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C1018" t="inlineStr"/>
       <c r="D1018" t="inlineStr">
         <is>
-          <t>3K</t>
-        </is>
-      </c>
-      <c r="E1018" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E1018" t="inlineStr"/>
       <c r="F1018" t="inlineStr">
         <is>
-          <t>6.0K</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="G1018" t="inlineStr">
@@ -28236,28 +28158,24 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateFEB</t>
+          <t>Michigan Consumer Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C1019" t="inlineStr"/>
       <c r="D1019" t="inlineStr">
         <is>
-          <t>111K</t>
-        </is>
-      </c>
-      <c r="E1019" t="inlineStr">
-        <is>
-          <t>142K</t>
-        </is>
-      </c>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E1019" t="inlineStr"/>
       <c r="F1019" t="inlineStr">
         <is>
-          <t>170.0K</t>
+          <t>63.5</t>
         </is>
       </c>
       <c r="G1019" t="inlineStr">
@@ -28269,24 +28187,24 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateFEB</t>
+          <t>Michigan Current Conditions PrelMAR</t>
         </is>
       </c>
       <c r="C1020" t="inlineStr"/>
       <c r="D1020" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>65.7</t>
         </is>
       </c>
       <c r="E1020" t="inlineStr"/>
       <c r="F1020" t="inlineStr">
         <is>
-          <t>7.6%</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="G1020" t="inlineStr">
@@ -28298,33 +28216,41 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Michigan Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C1021" t="inlineStr"/>
-      <c r="D1021" t="inlineStr"/>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="E1021" t="inlineStr"/>
-      <c r="F1021" t="inlineStr"/>
+      <c r="F1021" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="G1021" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>09:15 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Baker Hughes Oil Rig CountMAR/14</t>
         </is>
       </c>
       <c r="C1022" t="inlineStr"/>
@@ -28333,19 +28259,19 @@
       <c r="F1022" t="inlineStr"/>
       <c r="G1022" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>10:50 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Baker Hughes Total Rigs CountMAR/14</t>
         </is>
       </c>
       <c r="C1023" t="inlineStr"/>
@@ -28354,1766 +28280,35 @@
       <c r="F1023" t="inlineStr"/>
       <c r="G1023" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
-        </is>
-      </c>
-      <c r="B1024" t="inlineStr">
-        <is>
-          <t>Fed Chair Powell Speech</t>
-        </is>
-      </c>
+          <t>Saturday March 15 2025</t>
+        </is>
+      </c>
+      <c r="B1024" t="inlineStr"/>
       <c r="C1024" t="inlineStr"/>
       <c r="D1024" t="inlineStr"/>
       <c r="E1024" t="inlineStr"/>
       <c r="F1024" t="inlineStr"/>
-      <c r="G1024" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="G1024" t="inlineStr"/>
     </row>
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1025" t="inlineStr">
-        <is>
-          <t>Fed Kugler Speech</t>
-        </is>
-      </c>
+          <t>Sunday March 16 2025</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr"/>
       <c r="C1025" t="inlineStr"/>
       <c r="D1025" t="inlineStr"/>
       <c r="E1025" t="inlineStr"/>
       <c r="F1025" t="inlineStr"/>
-      <c r="G1025" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1026">
-      <c r="A1026" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1026" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/07</t>
-        </is>
-      </c>
-      <c r="C1026" t="inlineStr"/>
-      <c r="D1026" t="inlineStr">
-        <is>
-          <t>489</t>
-        </is>
-      </c>
-      <c r="E1026" t="inlineStr"/>
-      <c r="F1026" t="inlineStr"/>
-      <c r="G1026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1027">
-      <c r="A1027" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1027" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/07</t>
-        </is>
-      </c>
-      <c r="C1027" t="inlineStr"/>
-      <c r="D1027" t="inlineStr">
-        <is>
-          <t>593</t>
-        </is>
-      </c>
-      <c r="E1027" t="inlineStr"/>
-      <c r="F1027" t="inlineStr"/>
-      <c r="G1027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1028">
-      <c r="A1028" t="inlineStr"/>
-      <c r="B1028" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1028" t="inlineStr"/>
-      <c r="D1028" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1028" t="inlineStr"/>
-      <c r="F1028" t="inlineStr"/>
-      <c r="G1028" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1029">
-      <c r="A1029" t="inlineStr"/>
-      <c r="B1029" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1029" t="inlineStr"/>
-      <c r="D1029" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1029" t="inlineStr"/>
-      <c r="F1029" t="inlineStr"/>
-      <c r="G1029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1030">
-      <c r="A1030" t="inlineStr">
-        <is>
-          <t>Saturday March 08 2025</t>
-        </is>
-      </c>
-      <c r="B1030" t="inlineStr"/>
-      <c r="C1030" t="inlineStr"/>
-      <c r="D1030" t="inlineStr"/>
-      <c r="E1030" t="inlineStr"/>
-      <c r="F1030" t="inlineStr"/>
-      <c r="G1030" t="inlineStr"/>
-    </row>
-    <row r="1031">
-      <c r="A1031" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1031" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeJAN</t>
-        </is>
-      </c>
-      <c r="C1031" t="inlineStr"/>
-      <c r="D1031" t="inlineStr">
-        <is>
-          <t>$40.85B</t>
-        </is>
-      </c>
-      <c r="E1031" t="inlineStr">
-        <is>
-          <t>$14.5B</t>
-        </is>
-      </c>
-      <c r="F1031" t="inlineStr">
-        <is>
-          <t>$ -3.0B</t>
-        </is>
-      </c>
-      <c r="G1031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1032">
-      <c r="A1032" t="inlineStr">
-        <is>
-          <t>Sunday March 09 2025</t>
-        </is>
-      </c>
-      <c r="B1032" t="inlineStr"/>
-      <c r="C1032" t="inlineStr"/>
-      <c r="D1032" t="inlineStr"/>
-      <c r="E1032" t="inlineStr"/>
-      <c r="F1032" t="inlineStr"/>
-      <c r="G1032" t="inlineStr"/>
-    </row>
-    <row r="1033">
-      <c r="A1033" t="inlineStr">
-        <is>
-          <t>Monday March 10 2025</t>
-        </is>
-      </c>
-      <c r="B1033" t="inlineStr"/>
-      <c r="C1033" t="inlineStr"/>
-      <c r="D1033" t="inlineStr"/>
-      <c r="E1033" t="inlineStr"/>
-      <c r="F1033" t="inlineStr"/>
-      <c r="G1033" t="inlineStr"/>
-    </row>
-    <row r="1034">
-      <c r="A1034" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1034" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsFEB</t>
-        </is>
-      </c>
-      <c r="C1034" t="inlineStr"/>
-      <c r="D1034" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E1034" t="inlineStr"/>
-      <c r="F1034" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G1034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1035">
-      <c r="A1035" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1035" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1035" t="inlineStr"/>
-      <c r="D1035" t="inlineStr">
-        <is>
-          <t>4.210%</t>
-        </is>
-      </c>
-      <c r="E1035" t="inlineStr"/>
-      <c r="F1035" t="inlineStr"/>
-      <c r="G1035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1036">
-      <c r="A1036" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1036" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1036" t="inlineStr"/>
-      <c r="D1036" t="inlineStr">
-        <is>
-          <t>4.135%</t>
-        </is>
-      </c>
-      <c r="E1036" t="inlineStr"/>
-      <c r="F1036" t="inlineStr"/>
-      <c r="G1036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1037">
-      <c r="A1037" t="inlineStr">
-        <is>
-          <t>Tuesday March 11 2025</t>
-        </is>
-      </c>
-      <c r="B1037" t="inlineStr"/>
-      <c r="C1037" t="inlineStr"/>
-      <c r="D1037" t="inlineStr"/>
-      <c r="E1037" t="inlineStr"/>
-      <c r="F1037" t="inlineStr"/>
-      <c r="G1037" t="inlineStr"/>
-    </row>
-    <row r="1038">
-      <c r="A1038" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1038" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexFEB</t>
-        </is>
-      </c>
-      <c r="C1038" t="inlineStr"/>
-      <c r="D1038" t="inlineStr">
-        <is>
-          <t>102.8</t>
-        </is>
-      </c>
-      <c r="E1038" t="inlineStr"/>
-      <c r="F1038" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="G1038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1039">
-      <c r="A1039" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B1039" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAR/08</t>
-        </is>
-      </c>
-      <c r="C1039" t="inlineStr"/>
-      <c r="D1039" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E1039" t="inlineStr"/>
-      <c r="F1039" t="inlineStr"/>
-      <c r="G1039" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1040">
-      <c r="A1040" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1040" t="inlineStr">
-        <is>
-          <t>JOLTs Job OpeningsJAN</t>
-        </is>
-      </c>
-      <c r="C1040" t="inlineStr"/>
-      <c r="D1040" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
-      <c r="E1040" t="inlineStr"/>
-      <c r="F1040" t="inlineStr">
-        <is>
-          <t>7.5M</t>
-        </is>
-      </c>
-      <c r="G1040" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1041">
-      <c r="A1041" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1041" t="inlineStr">
-        <is>
-          <t>JOLTs Job QuitsJAN</t>
-        </is>
-      </c>
-      <c r="C1041" t="inlineStr"/>
-      <c r="D1041" t="inlineStr">
-        <is>
-          <t>3.197M</t>
-        </is>
-      </c>
-      <c r="E1041" t="inlineStr"/>
-      <c r="F1041" t="inlineStr">
-        <is>
-          <t>3.21M</t>
-        </is>
-      </c>
-      <c r="G1041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1042">
-      <c r="A1042" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1042" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C1042" t="inlineStr"/>
-      <c r="D1042" t="inlineStr"/>
-      <c r="E1042" t="inlineStr"/>
-      <c r="F1042" t="inlineStr"/>
-      <c r="G1042" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1043">
-      <c r="A1043" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1043" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1043" t="inlineStr"/>
-      <c r="D1043" t="inlineStr">
-        <is>
-          <t>4.300%</t>
-        </is>
-      </c>
-      <c r="E1043" t="inlineStr"/>
-      <c r="F1043" t="inlineStr"/>
-      <c r="G1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1044">
-      <c r="A1044" t="inlineStr">
-        <is>
-          <t>Wednesday March 12 2025</t>
-        </is>
-      </c>
-      <c r="B1044" t="inlineStr"/>
-      <c r="C1044" t="inlineStr"/>
-      <c r="D1044" t="inlineStr"/>
-      <c r="E1044" t="inlineStr"/>
-      <c r="F1044" t="inlineStr"/>
-      <c r="G1044" t="inlineStr"/>
-    </row>
-    <row r="1045">
-      <c r="A1045" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1045" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1045" t="inlineStr"/>
-      <c r="D1045" t="inlineStr">
-        <is>
-          <t>-1.455M</t>
-        </is>
-      </c>
-      <c r="E1045" t="inlineStr"/>
-      <c r="F1045" t="inlineStr"/>
-      <c r="G1045" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1046">
-      <c r="A1046" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1046" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAR/07</t>
-        </is>
-      </c>
-      <c r="C1046" t="inlineStr"/>
-      <c r="D1046" t="inlineStr">
-        <is>
-          <t>6.73%</t>
-        </is>
-      </c>
-      <c r="E1046" t="inlineStr"/>
-      <c r="F1046" t="inlineStr"/>
-      <c r="G1046" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1047">
-      <c r="A1047" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1047" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAR/07</t>
-        </is>
-      </c>
-      <c r="C1047" t="inlineStr"/>
-      <c r="D1047" t="inlineStr">
-        <is>
-          <t>20.4%</t>
-        </is>
-      </c>
-      <c r="E1047" t="inlineStr"/>
-      <c r="F1047" t="inlineStr"/>
-      <c r="G1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1048">
-      <c r="A1048" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1048" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C1048" t="inlineStr"/>
-      <c r="D1048" t="inlineStr">
-        <is>
-          <t>242.2</t>
-        </is>
-      </c>
-      <c r="E1048" t="inlineStr"/>
-      <c r="F1048" t="inlineStr"/>
-      <c r="G1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1049">
-      <c r="A1049" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1049" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C1049" t="inlineStr"/>
-      <c r="D1049" t="inlineStr">
-        <is>
-          <t>784.2</t>
-        </is>
-      </c>
-      <c r="E1049" t="inlineStr"/>
-      <c r="F1049" t="inlineStr"/>
-      <c r="G1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1050">
-      <c r="A1050" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1050" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C1050" t="inlineStr"/>
-      <c r="D1050" t="inlineStr">
-        <is>
-          <t>144.5</t>
-        </is>
-      </c>
-      <c r="E1050" t="inlineStr"/>
-      <c r="F1050" t="inlineStr"/>
-      <c r="G1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1051">
-      <c r="A1051" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1051" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1051" t="inlineStr"/>
-      <c r="D1051" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1051" t="inlineStr"/>
-      <c r="F1051" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1051" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1052">
-      <c r="A1052" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1052" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1052" t="inlineStr"/>
-      <c r="D1052" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E1052" t="inlineStr"/>
-      <c r="F1052" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G1052" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1053">
-      <c r="A1053" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1053" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1053" t="inlineStr"/>
-      <c r="D1053" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1053" t="inlineStr"/>
-      <c r="F1053" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1053" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1054">
-      <c r="A1054" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1054" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1054" t="inlineStr"/>
-      <c r="D1054" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E1054" t="inlineStr"/>
-      <c r="F1054" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G1054" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1055">
-      <c r="A1055" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1055" t="inlineStr">
-        <is>
-          <t>CPIFEB</t>
-        </is>
-      </c>
-      <c r="C1055" t="inlineStr"/>
-      <c r="D1055" t="inlineStr">
-        <is>
-          <t>317.67</t>
-        </is>
-      </c>
-      <c r="E1055" t="inlineStr"/>
-      <c r="F1055" t="inlineStr">
-        <is>
-          <t>319.3</t>
-        </is>
-      </c>
-      <c r="G1055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1056">
-      <c r="A1056" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1056" t="inlineStr">
-        <is>
-          <t>CPI s.aFEB</t>
-        </is>
-      </c>
-      <c r="C1056" t="inlineStr"/>
-      <c r="D1056" t="inlineStr">
-        <is>
-          <t>319.086</t>
-        </is>
-      </c>
-      <c r="E1056" t="inlineStr"/>
-      <c r="F1056" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="G1056" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1057">
-      <c r="A1057" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1057" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1057" t="inlineStr"/>
-      <c r="D1057" t="inlineStr">
-        <is>
-          <t>3.614M</t>
-        </is>
-      </c>
-      <c r="E1057" t="inlineStr"/>
-      <c r="F1057" t="inlineStr"/>
-      <c r="G1057" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1058">
-      <c r="A1058" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1058" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1058" t="inlineStr"/>
-      <c r="D1058" t="inlineStr">
-        <is>
-          <t>-1.433M</t>
-        </is>
-      </c>
-      <c r="E1058" t="inlineStr"/>
-      <c r="F1058" t="inlineStr"/>
-      <c r="G1058" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1059">
-      <c r="A1059" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1059" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1059" t="inlineStr"/>
-      <c r="D1059" t="inlineStr">
-        <is>
-          <t>-0.054M</t>
-        </is>
-      </c>
-      <c r="E1059" t="inlineStr"/>
-      <c r="F1059" t="inlineStr"/>
-      <c r="G1059" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1060">
-      <c r="A1060" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1060" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1060" t="inlineStr"/>
-      <c r="D1060" t="inlineStr">
-        <is>
-          <t>1.124M</t>
-        </is>
-      </c>
-      <c r="E1060" t="inlineStr"/>
-      <c r="F1060" t="inlineStr"/>
-      <c r="G1060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1061">
-      <c r="A1061" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1061" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1061" t="inlineStr"/>
-      <c r="D1061" t="inlineStr">
-        <is>
-          <t>-0.587M</t>
-        </is>
-      </c>
-      <c r="E1061" t="inlineStr"/>
-      <c r="F1061" t="inlineStr"/>
-      <c r="G1061" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1062">
-      <c r="A1062" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1062" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1062" t="inlineStr"/>
-      <c r="D1062" t="inlineStr">
-        <is>
-          <t>-1.318M</t>
-        </is>
-      </c>
-      <c r="E1062" t="inlineStr"/>
-      <c r="F1062" t="inlineStr"/>
-      <c r="G1062" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1063">
-      <c r="A1063" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1063" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1063" t="inlineStr"/>
-      <c r="D1063" t="inlineStr">
-        <is>
-          <t>0.464M</t>
-        </is>
-      </c>
-      <c r="E1063" t="inlineStr"/>
-      <c r="F1063" t="inlineStr"/>
-      <c r="G1063" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1064">
-      <c r="A1064" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1064" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1064" t="inlineStr"/>
-      <c r="D1064" t="inlineStr">
-        <is>
-          <t>-0.067M</t>
-        </is>
-      </c>
-      <c r="E1064" t="inlineStr"/>
-      <c r="F1064" t="inlineStr"/>
-      <c r="G1064" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1065">
-      <c r="A1065" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1065" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1065" t="inlineStr"/>
-      <c r="D1065" t="inlineStr">
-        <is>
-          <t>-0.346M</t>
-        </is>
-      </c>
-      <c r="E1065" t="inlineStr"/>
-      <c r="F1065" t="inlineStr"/>
-      <c r="G1065" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1066">
-      <c r="A1066" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1066" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1066" t="inlineStr"/>
-      <c r="D1066" t="inlineStr"/>
-      <c r="E1066" t="inlineStr"/>
-      <c r="F1066" t="inlineStr"/>
-      <c r="G1066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1067">
-      <c r="A1067" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1067" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1067" t="inlineStr"/>
-      <c r="D1067" t="inlineStr">
-        <is>
-          <t>4.632%</t>
-        </is>
-      </c>
-      <c r="E1067" t="inlineStr"/>
-      <c r="F1067" t="inlineStr"/>
-      <c r="G1067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1068">
-      <c r="A1068" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1068" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementFEB</t>
-        </is>
-      </c>
-      <c r="C1068" t="inlineStr"/>
-      <c r="D1068" t="inlineStr">
-        <is>
-          <t>$-129B</t>
-        </is>
-      </c>
-      <c r="E1068" t="inlineStr"/>
-      <c r="F1068" t="inlineStr">
-        <is>
-          <t>$-90.0B</t>
-        </is>
-      </c>
-      <c r="G1068" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1069">
-      <c r="A1069" t="inlineStr">
-        <is>
-          <t>Thursday March 13 2025</t>
-        </is>
-      </c>
-      <c r="B1069" t="inlineStr"/>
-      <c r="C1069" t="inlineStr"/>
-      <c r="D1069" t="inlineStr"/>
-      <c r="E1069" t="inlineStr"/>
-      <c r="F1069" t="inlineStr"/>
-      <c r="G1069" t="inlineStr"/>
-    </row>
-    <row r="1070">
-      <c r="A1070" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1070" t="inlineStr">
-        <is>
-          <t>PPI MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1070" t="inlineStr"/>
-      <c r="D1070" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1070" t="inlineStr"/>
-      <c r="F1070" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1070" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1071">
-      <c r="A1071" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1071" t="inlineStr">
-        <is>
-          <t>Core PPI MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1071" t="inlineStr"/>
-      <c r="D1071" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1071" t="inlineStr"/>
-      <c r="F1071" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1071" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1072">
-      <c r="A1072" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1072" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/08</t>
-        </is>
-      </c>
-      <c r="C1072" t="inlineStr"/>
-      <c r="D1072" t="inlineStr">
-        <is>
-          <t>221K</t>
-        </is>
-      </c>
-      <c r="E1072" t="inlineStr"/>
-      <c r="F1072" t="inlineStr"/>
-      <c r="G1072" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1073">
-      <c r="A1073" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1073" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAR/01</t>
-        </is>
-      </c>
-      <c r="C1073" t="inlineStr"/>
-      <c r="D1073" t="inlineStr"/>
-      <c r="E1073" t="inlineStr"/>
-      <c r="F1073" t="inlineStr"/>
-      <c r="G1073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1074">
-      <c r="A1074" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1074" t="inlineStr">
-        <is>
-          <t>Core PPI YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1074" t="inlineStr"/>
-      <c r="D1074" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E1074" t="inlineStr"/>
-      <c r="F1074" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G1074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1075">
-      <c r="A1075" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1075" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/08</t>
-        </is>
-      </c>
-      <c r="C1075" t="inlineStr"/>
-      <c r="D1075" t="inlineStr"/>
-      <c r="E1075" t="inlineStr"/>
-      <c r="F1075" t="inlineStr"/>
-      <c r="G1075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1076">
-      <c r="A1076" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1076" t="inlineStr">
-        <is>
-          <t>PPIFEB</t>
-        </is>
-      </c>
-      <c r="C1076" t="inlineStr"/>
-      <c r="D1076" t="inlineStr">
-        <is>
-          <t>147.716</t>
-        </is>
-      </c>
-      <c r="E1076" t="inlineStr"/>
-      <c r="F1076" t="inlineStr">
-        <is>
-          <t>148.1</t>
-        </is>
-      </c>
-      <c r="G1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1077">
-      <c r="A1077" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1077" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1077" t="inlineStr"/>
-      <c r="D1077" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1077" t="inlineStr"/>
-      <c r="F1077" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1078">
-      <c r="A1078" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1078" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1078" t="inlineStr"/>
-      <c r="D1078" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1078" t="inlineStr"/>
-      <c r="F1078" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1079">
-      <c r="A1079" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1079" t="inlineStr">
-        <is>
-          <t>PPI YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1079" t="inlineStr"/>
-      <c r="D1079" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E1079" t="inlineStr"/>
-      <c r="F1079" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1080">
-      <c r="A1080" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1080" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1080" t="inlineStr"/>
-      <c r="D1080" t="inlineStr">
-        <is>
-          <t>-80Bcf</t>
-        </is>
-      </c>
-      <c r="E1080" t="inlineStr"/>
-      <c r="F1080" t="inlineStr"/>
-      <c r="G1080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1081">
-      <c r="A1081" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1081" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1081" t="inlineStr"/>
-      <c r="D1081" t="inlineStr"/>
-      <c r="E1081" t="inlineStr"/>
-      <c r="F1081" t="inlineStr"/>
-      <c r="G1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1082">
-      <c r="A1082" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1082" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1082" t="inlineStr"/>
-      <c r="D1082" t="inlineStr"/>
-      <c r="E1082" t="inlineStr"/>
-      <c r="F1082" t="inlineStr"/>
-      <c r="G1082" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1083">
-      <c r="A1083" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1083" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/13</t>
-        </is>
-      </c>
-      <c r="C1083" t="inlineStr"/>
-      <c r="D1083" t="inlineStr"/>
-      <c r="E1083" t="inlineStr"/>
-      <c r="F1083" t="inlineStr"/>
-      <c r="G1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1084">
-      <c r="A1084" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1084" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/13</t>
-        </is>
-      </c>
-      <c r="C1084" t="inlineStr"/>
-      <c r="D1084" t="inlineStr"/>
-      <c r="E1084" t="inlineStr"/>
-      <c r="F1084" t="inlineStr"/>
-      <c r="G1084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1085">
-      <c r="A1085" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1085" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1085" t="inlineStr"/>
-      <c r="D1085" t="inlineStr">
-        <is>
-          <t>4.748%</t>
-        </is>
-      </c>
-      <c r="E1085" t="inlineStr"/>
-      <c r="F1085" t="inlineStr"/>
-      <c r="G1085" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1086">
-      <c r="A1086" t="inlineStr">
-        <is>
-          <t>Friday March 14 2025</t>
-        </is>
-      </c>
-      <c r="B1086" t="inlineStr"/>
-      <c r="C1086" t="inlineStr"/>
-      <c r="D1086" t="inlineStr"/>
-      <c r="E1086" t="inlineStr"/>
-      <c r="F1086" t="inlineStr"/>
-      <c r="G1086" t="inlineStr"/>
-    </row>
-    <row r="1087">
-      <c r="A1087" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1087" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/12</t>
-        </is>
-      </c>
-      <c r="C1087" t="inlineStr"/>
-      <c r="D1087" t="inlineStr"/>
-      <c r="E1087" t="inlineStr"/>
-      <c r="F1087" t="inlineStr"/>
-      <c r="G1087" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1088">
-      <c r="A1088" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1088" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1088" t="inlineStr"/>
-      <c r="D1088" t="inlineStr">
-        <is>
-          <t>64.7</t>
-        </is>
-      </c>
-      <c r="E1088" t="inlineStr"/>
-      <c r="F1088" t="inlineStr">
-        <is>
-          <t>63.2</t>
-        </is>
-      </c>
-      <c r="G1088" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1089">
-      <c r="A1089" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1089" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1089" t="inlineStr"/>
-      <c r="D1089" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E1089" t="inlineStr"/>
-      <c r="F1089" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G1089" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1090">
-      <c r="A1090" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1090" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1090" t="inlineStr"/>
-      <c r="D1090" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E1090" t="inlineStr"/>
-      <c r="F1090" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
-      <c r="G1090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1091">
-      <c r="A1091" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1091" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1091" t="inlineStr"/>
-      <c r="D1091" t="inlineStr">
-        <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="E1091" t="inlineStr"/>
-      <c r="F1091" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
-      <c r="G1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1092">
-      <c r="A1092" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1092" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1092" t="inlineStr"/>
-      <c r="D1092" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="E1092" t="inlineStr"/>
-      <c r="F1092" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="G1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1093">
-      <c r="A1093" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1093" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C1093" t="inlineStr"/>
-      <c r="D1093" t="inlineStr"/>
-      <c r="E1093" t="inlineStr"/>
-      <c r="F1093" t="inlineStr"/>
-      <c r="G1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1094">
-      <c r="A1094" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1094" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C1094" t="inlineStr"/>
-      <c r="D1094" t="inlineStr"/>
-      <c r="E1094" t="inlineStr"/>
-      <c r="F1094" t="inlineStr"/>
-      <c r="G1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1095">
-      <c r="A1095" t="inlineStr">
-        <is>
-          <t>Saturday March 15 2025</t>
-        </is>
-      </c>
-      <c r="B1095" t="inlineStr"/>
-      <c r="C1095" t="inlineStr"/>
-      <c r="D1095" t="inlineStr"/>
-      <c r="E1095" t="inlineStr"/>
-      <c r="F1095" t="inlineStr"/>
-      <c r="G1095" t="inlineStr"/>
-    </row>
-    <row r="1096">
-      <c r="A1096" t="inlineStr">
-        <is>
-          <t>Sunday March 16 2025</t>
-        </is>
-      </c>
-      <c r="B1096" t="inlineStr"/>
-      <c r="C1096" t="inlineStr"/>
-      <c r="D1096" t="inlineStr"/>
-      <c r="E1096" t="inlineStr"/>
-      <c r="F1096" t="inlineStr"/>
-      <c r="G1096" t="inlineStr"/>
+      <c r="G1025" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-16.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1096"/>
+  <dimension ref="A1:G1026"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27375,10 +27375,8 @@
       <c r="D990" t="inlineStr"/>
       <c r="E990" t="inlineStr"/>
       <c r="F990" t="inlineStr"/>
-      <c r="G990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G990" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="991">
@@ -27408,10 +27406,8 @@
           <t>56.0K</t>
         </is>
       </c>
-      <c r="G991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G991" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="992">
@@ -27445,10 +27441,8 @@
           <t>$-123B</t>
         </is>
       </c>
-      <c r="G992" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G992" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="993">
@@ -27478,10 +27472,8 @@
           <t>$273.0B</t>
         </is>
       </c>
-      <c r="G993" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G993" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="994">
@@ -27511,10 +27503,8 @@
           <t>$396.0B</t>
         </is>
       </c>
-      <c r="G994" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G994" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="995">
@@ -27548,10 +27538,8 @@
           <t>250.0K</t>
         </is>
       </c>
-      <c r="G995" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G995" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="996">
@@ -27585,10 +27573,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="G996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="997">
@@ -27618,10 +27604,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -27655,10 +27639,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="G998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="999">
@@ -27692,10 +27674,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -27721,10 +27701,8 @@
       </c>
       <c r="E1000" t="inlineStr"/>
       <c r="F1000" t="inlineStr"/>
-      <c r="G1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -27758,10 +27736,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="G1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1002">
@@ -27791,10 +27767,8 @@
         </is>
       </c>
       <c r="F1002" t="inlineStr"/>
-      <c r="G1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -27820,10 +27794,8 @@
       </c>
       <c r="E1003" t="inlineStr"/>
       <c r="F1003" t="inlineStr"/>
-      <c r="G1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -27849,10 +27821,8 @@
       </c>
       <c r="E1004" t="inlineStr"/>
       <c r="F1004" t="inlineStr"/>
-      <c r="G1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1004" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1005">
@@ -27878,10 +27848,8 @@
       </c>
       <c r="E1005" t="inlineStr"/>
       <c r="F1005" t="inlineStr"/>
-      <c r="G1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1005" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1006">
@@ -27907,65 +27875,91 @@
       </c>
       <c r="E1006" t="inlineStr"/>
       <c r="F1006" t="inlineStr"/>
-      <c r="G1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1006" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>Friday March 07 2025</t>
-        </is>
-      </c>
-      <c r="B1007" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade MoMFEB</t>
+        </is>
+      </c>
       <c r="C1007" t="inlineStr"/>
-      <c r="D1007" t="inlineStr"/>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E1007" t="inlineStr"/>
-      <c r="F1007" t="inlineStr"/>
-      <c r="G1007" t="inlineStr"/>
+      <c r="F1007" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G1007" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>PPI Ex Food, Energy and Trade YoYFEB</t>
         </is>
       </c>
       <c r="C1008" t="inlineStr"/>
-      <c r="D1008" t="inlineStr"/>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="E1008" t="inlineStr"/>
-      <c r="F1008" t="inlineStr"/>
+      <c r="F1008" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="G1008" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAR/05</t>
+          <t>PPI YoYFEB</t>
         </is>
       </c>
       <c r="C1009" t="inlineStr"/>
       <c r="D1009" t="inlineStr">
         <is>
-          <t>$6.77T</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="E1009" t="inlineStr"/>
-      <c r="F1009" t="inlineStr"/>
+      <c r="F1009" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="G1009" t="inlineStr">
         <is>
           <t>3</t>
@@ -27975,241 +27969,173 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>EIA Natural Gas Stocks ChangeMAR/07</t>
         </is>
       </c>
       <c r="C1010" t="inlineStr"/>
-      <c r="D1010" t="inlineStr"/>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>-80Bcf</t>
+        </is>
+      </c>
       <c r="E1010" t="inlineStr"/>
       <c r="F1010" t="inlineStr"/>
       <c r="G1010" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsFEB</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1011" t="inlineStr"/>
-      <c r="D1011" t="inlineStr">
-        <is>
-          <t>143K</t>
-        </is>
-      </c>
-      <c r="E1011" t="inlineStr">
-        <is>
-          <t>160K</t>
-        </is>
-      </c>
-      <c r="F1011" t="inlineStr">
-        <is>
-          <t>150.0K</t>
-        </is>
-      </c>
+      <c r="D1011" t="inlineStr"/>
+      <c r="E1011" t="inlineStr"/>
+      <c r="F1011" t="inlineStr"/>
       <c r="G1011" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Unemployment RateFEB</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1012" t="inlineStr"/>
-      <c r="D1012" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E1012" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="F1012" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+      <c r="D1012" t="inlineStr"/>
+      <c r="E1012" t="inlineStr"/>
+      <c r="F1012" t="inlineStr"/>
       <c r="G1012" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMFEB</t>
+          <t>15-Year Mortgage RateMAR/13</t>
         </is>
       </c>
       <c r="C1013" t="inlineStr"/>
       <c r="D1013" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1013" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1013" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>5.79%</t>
+        </is>
+      </c>
+      <c r="E1013" t="inlineStr"/>
+      <c r="F1013" t="inlineStr"/>
       <c r="G1013" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYFEB</t>
+          <t>30-Year Mortgage RateMAR/13</t>
         </is>
       </c>
       <c r="C1014" t="inlineStr"/>
       <c r="D1014" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1014" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F1014" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+          <t>6.63%</t>
+        </is>
+      </c>
+      <c r="E1014" t="inlineStr"/>
+      <c r="F1014" t="inlineStr"/>
       <c r="G1014" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Participation RateFEB</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1015" t="inlineStr"/>
       <c r="D1015" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>4.748%</t>
         </is>
       </c>
       <c r="E1015" t="inlineStr"/>
-      <c r="F1015" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="F1015" t="inlineStr"/>
       <c r="G1015" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1016" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursFEB</t>
-        </is>
-      </c>
+          <t>Friday March 14 2025</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr"/>
       <c r="C1016" t="inlineStr"/>
-      <c r="D1016" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="E1016" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F1016" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="G1016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D1016" t="inlineStr"/>
+      <c r="E1016" t="inlineStr"/>
+      <c r="F1016" t="inlineStr"/>
+      <c r="G1016" t="inlineStr"/>
     </row>
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Government PayrollsFEB</t>
+          <t>Fed Balance SheetMAR/12</t>
         </is>
       </c>
       <c r="C1017" t="inlineStr"/>
-      <c r="D1017" t="inlineStr">
-        <is>
-          <t>32K</t>
-        </is>
-      </c>
+      <c r="D1017" t="inlineStr"/>
       <c r="E1017" t="inlineStr"/>
-      <c r="F1017" t="inlineStr">
-        <is>
-          <t>-20.0K</t>
-        </is>
-      </c>
+      <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr">
         <is>
           <t>3</t>
@@ -28219,61 +28145,53 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsFEB</t>
+          <t>Michigan Consumer Sentiment PrelMAR</t>
         </is>
       </c>
       <c r="C1018" t="inlineStr"/>
       <c r="D1018" t="inlineStr">
         <is>
-          <t>3K</t>
-        </is>
-      </c>
-      <c r="E1018" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+          <t>64.7</t>
+        </is>
+      </c>
+      <c r="E1018" t="inlineStr"/>
       <c r="F1018" t="inlineStr">
         <is>
-          <t>6.0K</t>
+          <t>63.2</t>
         </is>
       </c>
       <c r="G1018" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateFEB</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C1019" t="inlineStr"/>
       <c r="D1019" t="inlineStr">
         <is>
-          <t>111K</t>
-        </is>
-      </c>
-      <c r="E1019" t="inlineStr">
-        <is>
-          <t>142K</t>
-        </is>
-      </c>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E1019" t="inlineStr"/>
       <c r="F1019" t="inlineStr">
         <is>
-          <t>170.0K</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="G1019" t="inlineStr">
@@ -28285,24 +28203,24 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateFEB</t>
+          <t>Michigan Consumer Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C1020" t="inlineStr"/>
       <c r="D1020" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>64</t>
         </is>
       </c>
       <c r="E1020" t="inlineStr"/>
       <c r="F1020" t="inlineStr">
         <is>
-          <t>7.6%</t>
+          <t>63.5</t>
         </is>
       </c>
       <c r="G1020" t="inlineStr">
@@ -28314,54 +28232,70 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Michigan Current Conditions PrelMAR</t>
         </is>
       </c>
       <c r="C1021" t="inlineStr"/>
-      <c r="D1021" t="inlineStr"/>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>65.7</t>
+        </is>
+      </c>
       <c r="E1021" t="inlineStr"/>
-      <c r="F1021" t="inlineStr"/>
+      <c r="F1021" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="G1021" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>09:15 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Michigan Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C1022" t="inlineStr"/>
-      <c r="D1022" t="inlineStr"/>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="E1022" t="inlineStr"/>
-      <c r="F1022" t="inlineStr"/>
+      <c r="F1022" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="G1022" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>10:50 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Baker Hughes Oil Rig CountMAR/14</t>
         </is>
       </c>
       <c r="C1023" t="inlineStr"/>
@@ -28370,19 +28304,19 @@
       <c r="F1023" t="inlineStr"/>
       <c r="G1023" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Fed Chair Powell Speech</t>
+          <t>Baker Hughes Total Rigs CountMAR/14</t>
         </is>
       </c>
       <c r="C1024" t="inlineStr"/>
@@ -28391,1753 +28325,35 @@
       <c r="F1024" t="inlineStr"/>
       <c r="G1024" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1025" t="inlineStr">
-        <is>
-          <t>Fed Kugler Speech</t>
-        </is>
-      </c>
+          <t>Saturday March 15 2025</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr"/>
       <c r="C1025" t="inlineStr"/>
       <c r="D1025" t="inlineStr"/>
       <c r="E1025" t="inlineStr"/>
       <c r="F1025" t="inlineStr"/>
-      <c r="G1025" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1025" t="inlineStr"/>
     </row>
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1026" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/07</t>
-        </is>
-      </c>
+          <t>Sunday March 16 2025</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr"/>
       <c r="C1026" t="inlineStr"/>
-      <c r="D1026" t="inlineStr">
-        <is>
-          <t>489</t>
-        </is>
-      </c>
+      <c r="D1026" t="inlineStr"/>
       <c r="E1026" t="inlineStr"/>
       <c r="F1026" t="inlineStr"/>
-      <c r="G1026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1027">
-      <c r="A1027" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1027" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/07</t>
-        </is>
-      </c>
-      <c r="C1027" t="inlineStr"/>
-      <c r="D1027" t="inlineStr">
-        <is>
-          <t>593</t>
-        </is>
-      </c>
-      <c r="E1027" t="inlineStr"/>
-      <c r="F1027" t="inlineStr"/>
-      <c r="G1027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1028">
-      <c r="A1028" t="inlineStr"/>
-      <c r="B1028" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1028" t="inlineStr"/>
-      <c r="D1028" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1028" t="inlineStr"/>
-      <c r="F1028" t="inlineStr"/>
-      <c r="G1028" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1029">
-      <c r="A1029" t="inlineStr"/>
-      <c r="B1029" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1029" t="inlineStr"/>
-      <c r="D1029" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1029" t="inlineStr"/>
-      <c r="F1029" t="inlineStr"/>
-      <c r="G1029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1030">
-      <c r="A1030" t="inlineStr">
-        <is>
-          <t>Saturday March 08 2025</t>
-        </is>
-      </c>
-      <c r="B1030" t="inlineStr"/>
-      <c r="C1030" t="inlineStr"/>
-      <c r="D1030" t="inlineStr"/>
-      <c r="E1030" t="inlineStr"/>
-      <c r="F1030" t="inlineStr"/>
-      <c r="G1030" t="inlineStr"/>
-    </row>
-    <row r="1031">
-      <c r="A1031" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1031" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeJAN</t>
-        </is>
-      </c>
-      <c r="C1031" t="inlineStr"/>
-      <c r="D1031" t="inlineStr">
-        <is>
-          <t>$40.85B</t>
-        </is>
-      </c>
-      <c r="E1031" t="inlineStr">
-        <is>
-          <t>$14.5B</t>
-        </is>
-      </c>
-      <c r="F1031" t="inlineStr">
-        <is>
-          <t>$ -3.0B</t>
-        </is>
-      </c>
-      <c r="G1031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1032">
-      <c r="A1032" t="inlineStr">
-        <is>
-          <t>Sunday March 09 2025</t>
-        </is>
-      </c>
-      <c r="B1032" t="inlineStr"/>
-      <c r="C1032" t="inlineStr"/>
-      <c r="D1032" t="inlineStr"/>
-      <c r="E1032" t="inlineStr"/>
-      <c r="F1032" t="inlineStr"/>
-      <c r="G1032" t="inlineStr"/>
-    </row>
-    <row r="1033">
-      <c r="A1033" t="inlineStr">
-        <is>
-          <t>Monday March 10 2025</t>
-        </is>
-      </c>
-      <c r="B1033" t="inlineStr"/>
-      <c r="C1033" t="inlineStr"/>
-      <c r="D1033" t="inlineStr"/>
-      <c r="E1033" t="inlineStr"/>
-      <c r="F1033" t="inlineStr"/>
-      <c r="G1033" t="inlineStr"/>
-    </row>
-    <row r="1034">
-      <c r="A1034" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1034" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsFEB</t>
-        </is>
-      </c>
-      <c r="C1034" t="inlineStr"/>
-      <c r="D1034" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E1034" t="inlineStr"/>
-      <c r="F1034" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G1034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1035">
-      <c r="A1035" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1035" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1035" t="inlineStr"/>
-      <c r="D1035" t="inlineStr">
-        <is>
-          <t>4.210%</t>
-        </is>
-      </c>
-      <c r="E1035" t="inlineStr"/>
-      <c r="F1035" t="inlineStr"/>
-      <c r="G1035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1036">
-      <c r="A1036" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1036" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1036" t="inlineStr"/>
-      <c r="D1036" t="inlineStr">
-        <is>
-          <t>4.135%</t>
-        </is>
-      </c>
-      <c r="E1036" t="inlineStr"/>
-      <c r="F1036" t="inlineStr"/>
-      <c r="G1036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1037">
-      <c r="A1037" t="inlineStr">
-        <is>
-          <t>Tuesday March 11 2025</t>
-        </is>
-      </c>
-      <c r="B1037" t="inlineStr"/>
-      <c r="C1037" t="inlineStr"/>
-      <c r="D1037" t="inlineStr"/>
-      <c r="E1037" t="inlineStr"/>
-      <c r="F1037" t="inlineStr"/>
-      <c r="G1037" t="inlineStr"/>
-    </row>
-    <row r="1038">
-      <c r="A1038" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1038" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexFEB</t>
-        </is>
-      </c>
-      <c r="C1038" t="inlineStr"/>
-      <c r="D1038" t="inlineStr">
-        <is>
-          <t>102.8</t>
-        </is>
-      </c>
-      <c r="E1038" t="inlineStr"/>
-      <c r="F1038" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="G1038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1039">
-      <c r="A1039" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B1039" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAR/08</t>
-        </is>
-      </c>
-      <c r="C1039" t="inlineStr"/>
-      <c r="D1039" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E1039" t="inlineStr"/>
-      <c r="F1039" t="inlineStr"/>
-      <c r="G1039" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1040">
-      <c r="A1040" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1040" t="inlineStr">
-        <is>
-          <t>JOLTs Job OpeningsJAN</t>
-        </is>
-      </c>
-      <c r="C1040" t="inlineStr"/>
-      <c r="D1040" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
-      <c r="E1040" t="inlineStr"/>
-      <c r="F1040" t="inlineStr">
-        <is>
-          <t>7.5M</t>
-        </is>
-      </c>
-      <c r="G1040" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1041">
-      <c r="A1041" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1041" t="inlineStr">
-        <is>
-          <t>JOLTs Job QuitsJAN</t>
-        </is>
-      </c>
-      <c r="C1041" t="inlineStr"/>
-      <c r="D1041" t="inlineStr">
-        <is>
-          <t>3.197M</t>
-        </is>
-      </c>
-      <c r="E1041" t="inlineStr"/>
-      <c r="F1041" t="inlineStr">
-        <is>
-          <t>3.21M</t>
-        </is>
-      </c>
-      <c r="G1041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1042">
-      <c r="A1042" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1042" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C1042" t="inlineStr"/>
-      <c r="D1042" t="inlineStr"/>
-      <c r="E1042" t="inlineStr"/>
-      <c r="F1042" t="inlineStr"/>
-      <c r="G1042" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1043">
-      <c r="A1043" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1043" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1043" t="inlineStr"/>
-      <c r="D1043" t="inlineStr">
-        <is>
-          <t>4.300%</t>
-        </is>
-      </c>
-      <c r="E1043" t="inlineStr"/>
-      <c r="F1043" t="inlineStr"/>
-      <c r="G1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1044">
-      <c r="A1044" t="inlineStr">
-        <is>
-          <t>Wednesday March 12 2025</t>
-        </is>
-      </c>
-      <c r="B1044" t="inlineStr"/>
-      <c r="C1044" t="inlineStr"/>
-      <c r="D1044" t="inlineStr"/>
-      <c r="E1044" t="inlineStr"/>
-      <c r="F1044" t="inlineStr"/>
-      <c r="G1044" t="inlineStr"/>
-    </row>
-    <row r="1045">
-      <c r="A1045" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1045" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1045" t="inlineStr"/>
-      <c r="D1045" t="inlineStr">
-        <is>
-          <t>-1.455M</t>
-        </is>
-      </c>
-      <c r="E1045" t="inlineStr"/>
-      <c r="F1045" t="inlineStr"/>
-      <c r="G1045" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1046">
-      <c r="A1046" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1046" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAR/07</t>
-        </is>
-      </c>
-      <c r="C1046" t="inlineStr"/>
-      <c r="D1046" t="inlineStr">
-        <is>
-          <t>6.73%</t>
-        </is>
-      </c>
-      <c r="E1046" t="inlineStr"/>
-      <c r="F1046" t="inlineStr"/>
-      <c r="G1046" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1047">
-      <c r="A1047" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1047" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAR/07</t>
-        </is>
-      </c>
-      <c r="C1047" t="inlineStr"/>
-      <c r="D1047" t="inlineStr">
-        <is>
-          <t>20.4%</t>
-        </is>
-      </c>
-      <c r="E1047" t="inlineStr"/>
-      <c r="F1047" t="inlineStr"/>
-      <c r="G1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1048">
-      <c r="A1048" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1048" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C1048" t="inlineStr"/>
-      <c r="D1048" t="inlineStr">
-        <is>
-          <t>242.2</t>
-        </is>
-      </c>
-      <c r="E1048" t="inlineStr"/>
-      <c r="F1048" t="inlineStr"/>
-      <c r="G1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1049">
-      <c r="A1049" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1049" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C1049" t="inlineStr"/>
-      <c r="D1049" t="inlineStr">
-        <is>
-          <t>784.2</t>
-        </is>
-      </c>
-      <c r="E1049" t="inlineStr"/>
-      <c r="F1049" t="inlineStr"/>
-      <c r="G1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1050">
-      <c r="A1050" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1050" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C1050" t="inlineStr"/>
-      <c r="D1050" t="inlineStr">
-        <is>
-          <t>144.5</t>
-        </is>
-      </c>
-      <c r="E1050" t="inlineStr"/>
-      <c r="F1050" t="inlineStr"/>
-      <c r="G1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1051">
-      <c r="A1051" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1051" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1051" t="inlineStr"/>
-      <c r="D1051" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1051" t="inlineStr"/>
-      <c r="F1051" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1051" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1052">
-      <c r="A1052" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1052" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1052" t="inlineStr"/>
-      <c r="D1052" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E1052" t="inlineStr"/>
-      <c r="F1052" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G1052" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1053">
-      <c r="A1053" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1053" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1053" t="inlineStr"/>
-      <c r="D1053" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1053" t="inlineStr"/>
-      <c r="F1053" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1053" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1054">
-      <c r="A1054" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1054" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1054" t="inlineStr"/>
-      <c r="D1054" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E1054" t="inlineStr"/>
-      <c r="F1054" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G1054" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1055">
-      <c r="A1055" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1055" t="inlineStr">
-        <is>
-          <t>CPIFEB</t>
-        </is>
-      </c>
-      <c r="C1055" t="inlineStr"/>
-      <c r="D1055" t="inlineStr">
-        <is>
-          <t>317.67</t>
-        </is>
-      </c>
-      <c r="E1055" t="inlineStr"/>
-      <c r="F1055" t="inlineStr">
-        <is>
-          <t>319.3</t>
-        </is>
-      </c>
-      <c r="G1055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1056">
-      <c r="A1056" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1056" t="inlineStr">
-        <is>
-          <t>CPI s.aFEB</t>
-        </is>
-      </c>
-      <c r="C1056" t="inlineStr"/>
-      <c r="D1056" t="inlineStr">
-        <is>
-          <t>319.086</t>
-        </is>
-      </c>
-      <c r="E1056" t="inlineStr"/>
-      <c r="F1056" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="G1056" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1057">
-      <c r="A1057" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1057" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1057" t="inlineStr"/>
-      <c r="D1057" t="inlineStr">
-        <is>
-          <t>3.614M</t>
-        </is>
-      </c>
-      <c r="E1057" t="inlineStr"/>
-      <c r="F1057" t="inlineStr"/>
-      <c r="G1057" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1058">
-      <c r="A1058" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1058" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1058" t="inlineStr"/>
-      <c r="D1058" t="inlineStr">
-        <is>
-          <t>-1.433M</t>
-        </is>
-      </c>
-      <c r="E1058" t="inlineStr"/>
-      <c r="F1058" t="inlineStr"/>
-      <c r="G1058" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1059">
-      <c r="A1059" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1059" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1059" t="inlineStr"/>
-      <c r="D1059" t="inlineStr">
-        <is>
-          <t>-0.054M</t>
-        </is>
-      </c>
-      <c r="E1059" t="inlineStr"/>
-      <c r="F1059" t="inlineStr"/>
-      <c r="G1059" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1060">
-      <c r="A1060" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1060" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1060" t="inlineStr"/>
-      <c r="D1060" t="inlineStr">
-        <is>
-          <t>1.124M</t>
-        </is>
-      </c>
-      <c r="E1060" t="inlineStr"/>
-      <c r="F1060" t="inlineStr"/>
-      <c r="G1060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1061">
-      <c r="A1061" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1061" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1061" t="inlineStr"/>
-      <c r="D1061" t="inlineStr">
-        <is>
-          <t>-0.587M</t>
-        </is>
-      </c>
-      <c r="E1061" t="inlineStr"/>
-      <c r="F1061" t="inlineStr"/>
-      <c r="G1061" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1062">
-      <c r="A1062" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1062" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1062" t="inlineStr"/>
-      <c r="D1062" t="inlineStr">
-        <is>
-          <t>-1.318M</t>
-        </is>
-      </c>
-      <c r="E1062" t="inlineStr"/>
-      <c r="F1062" t="inlineStr"/>
-      <c r="G1062" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1063">
-      <c r="A1063" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1063" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1063" t="inlineStr"/>
-      <c r="D1063" t="inlineStr">
-        <is>
-          <t>0.464M</t>
-        </is>
-      </c>
-      <c r="E1063" t="inlineStr"/>
-      <c r="F1063" t="inlineStr"/>
-      <c r="G1063" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1064">
-      <c r="A1064" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1064" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1064" t="inlineStr"/>
-      <c r="D1064" t="inlineStr">
-        <is>
-          <t>-0.067M</t>
-        </is>
-      </c>
-      <c r="E1064" t="inlineStr"/>
-      <c r="F1064" t="inlineStr"/>
-      <c r="G1064" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1065">
-      <c r="A1065" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1065" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1065" t="inlineStr"/>
-      <c r="D1065" t="inlineStr">
-        <is>
-          <t>-0.346M</t>
-        </is>
-      </c>
-      <c r="E1065" t="inlineStr"/>
-      <c r="F1065" t="inlineStr"/>
-      <c r="G1065" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1066">
-      <c r="A1066" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1066" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1066" t="inlineStr"/>
-      <c r="D1066" t="inlineStr"/>
-      <c r="E1066" t="inlineStr"/>
-      <c r="F1066" t="inlineStr"/>
-      <c r="G1066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1067">
-      <c r="A1067" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1067" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1067" t="inlineStr"/>
-      <c r="D1067" t="inlineStr">
-        <is>
-          <t>4.632%</t>
-        </is>
-      </c>
-      <c r="E1067" t="inlineStr"/>
-      <c r="F1067" t="inlineStr"/>
-      <c r="G1067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1068">
-      <c r="A1068" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1068" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementFEB</t>
-        </is>
-      </c>
-      <c r="C1068" t="inlineStr"/>
-      <c r="D1068" t="inlineStr">
-        <is>
-          <t>$-129B</t>
-        </is>
-      </c>
-      <c r="E1068" t="inlineStr"/>
-      <c r="F1068" t="inlineStr">
-        <is>
-          <t>$-90.0B</t>
-        </is>
-      </c>
-      <c r="G1068" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1069">
-      <c r="A1069" t="inlineStr">
-        <is>
-          <t>Thursday March 13 2025</t>
-        </is>
-      </c>
-      <c r="B1069" t="inlineStr"/>
-      <c r="C1069" t="inlineStr"/>
-      <c r="D1069" t="inlineStr"/>
-      <c r="E1069" t="inlineStr"/>
-      <c r="F1069" t="inlineStr"/>
-      <c r="G1069" t="inlineStr"/>
-    </row>
-    <row r="1070">
-      <c r="A1070" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1070" t="inlineStr">
-        <is>
-          <t>PPI MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1070" t="inlineStr"/>
-      <c r="D1070" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1070" t="inlineStr"/>
-      <c r="F1070" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1070" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1071">
-      <c r="A1071" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1071" t="inlineStr">
-        <is>
-          <t>Core PPI MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1071" t="inlineStr"/>
-      <c r="D1071" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1071" t="inlineStr"/>
-      <c r="F1071" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1071" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1072">
-      <c r="A1072" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1072" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/08</t>
-        </is>
-      </c>
-      <c r="C1072" t="inlineStr"/>
-      <c r="D1072" t="inlineStr">
-        <is>
-          <t>221K</t>
-        </is>
-      </c>
-      <c r="E1072" t="inlineStr"/>
-      <c r="F1072" t="inlineStr"/>
-      <c r="G1072" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1073">
-      <c r="A1073" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1073" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAR/01</t>
-        </is>
-      </c>
-      <c r="C1073" t="inlineStr"/>
-      <c r="D1073" t="inlineStr"/>
-      <c r="E1073" t="inlineStr"/>
-      <c r="F1073" t="inlineStr"/>
-      <c r="G1073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1074">
-      <c r="A1074" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1074" t="inlineStr">
-        <is>
-          <t>Core PPI YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1074" t="inlineStr"/>
-      <c r="D1074" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E1074" t="inlineStr"/>
-      <c r="F1074" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G1074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1075">
-      <c r="A1075" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1075" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/08</t>
-        </is>
-      </c>
-      <c r="C1075" t="inlineStr"/>
-      <c r="D1075" t="inlineStr"/>
-      <c r="E1075" t="inlineStr"/>
-      <c r="F1075" t="inlineStr"/>
-      <c r="G1075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1076">
-      <c r="A1076" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1076" t="inlineStr">
-        <is>
-          <t>PPIFEB</t>
-        </is>
-      </c>
-      <c r="C1076" t="inlineStr"/>
-      <c r="D1076" t="inlineStr">
-        <is>
-          <t>147.716</t>
-        </is>
-      </c>
-      <c r="E1076" t="inlineStr"/>
-      <c r="F1076" t="inlineStr">
-        <is>
-          <t>148.1</t>
-        </is>
-      </c>
-      <c r="G1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1077">
-      <c r="A1077" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1077" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1077" t="inlineStr"/>
-      <c r="D1077" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1077" t="inlineStr"/>
-      <c r="F1077" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1078">
-      <c r="A1078" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1078" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1078" t="inlineStr"/>
-      <c r="D1078" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1078" t="inlineStr"/>
-      <c r="F1078" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1079">
-      <c r="A1079" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1079" t="inlineStr">
-        <is>
-          <t>PPI YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1079" t="inlineStr"/>
-      <c r="D1079" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E1079" t="inlineStr"/>
-      <c r="F1079" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1080">
-      <c r="A1080" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1080" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1080" t="inlineStr"/>
-      <c r="D1080" t="inlineStr">
-        <is>
-          <t>-80Bcf</t>
-        </is>
-      </c>
-      <c r="E1080" t="inlineStr"/>
-      <c r="F1080" t="inlineStr"/>
-      <c r="G1080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1081">
-      <c r="A1081" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1081" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1081" t="inlineStr"/>
-      <c r="D1081" t="inlineStr"/>
-      <c r="E1081" t="inlineStr"/>
-      <c r="F1081" t="inlineStr"/>
-      <c r="G1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1082">
-      <c r="A1082" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1082" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1082" t="inlineStr"/>
-      <c r="D1082" t="inlineStr"/>
-      <c r="E1082" t="inlineStr"/>
-      <c r="F1082" t="inlineStr"/>
-      <c r="G1082" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1083">
-      <c r="A1083" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1083" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/13</t>
-        </is>
-      </c>
-      <c r="C1083" t="inlineStr"/>
-      <c r="D1083" t="inlineStr">
-        <is>
-          <t>5.79%</t>
-        </is>
-      </c>
-      <c r="E1083" t="inlineStr"/>
-      <c r="F1083" t="inlineStr"/>
-      <c r="G1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1084">
-      <c r="A1084" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1084" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/13</t>
-        </is>
-      </c>
-      <c r="C1084" t="inlineStr"/>
-      <c r="D1084" t="inlineStr">
-        <is>
-          <t>6.63%</t>
-        </is>
-      </c>
-      <c r="E1084" t="inlineStr"/>
-      <c r="F1084" t="inlineStr"/>
-      <c r="G1084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1085">
-      <c r="A1085" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1085" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1085" t="inlineStr"/>
-      <c r="D1085" t="inlineStr">
-        <is>
-          <t>4.748%</t>
-        </is>
-      </c>
-      <c r="E1085" t="inlineStr"/>
-      <c r="F1085" t="inlineStr"/>
-      <c r="G1085" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1086">
-      <c r="A1086" t="inlineStr">
-        <is>
-          <t>Friday March 14 2025</t>
-        </is>
-      </c>
-      <c r="B1086" t="inlineStr"/>
-      <c r="C1086" t="inlineStr"/>
-      <c r="D1086" t="inlineStr"/>
-      <c r="E1086" t="inlineStr"/>
-      <c r="F1086" t="inlineStr"/>
-      <c r="G1086" t="inlineStr"/>
-    </row>
-    <row r="1087">
-      <c r="A1087" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1087" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/12</t>
-        </is>
-      </c>
-      <c r="C1087" t="inlineStr"/>
-      <c r="D1087" t="inlineStr"/>
-      <c r="E1087" t="inlineStr"/>
-      <c r="F1087" t="inlineStr"/>
-      <c r="G1087" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1088">
-      <c r="A1088" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1088" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1088" t="inlineStr"/>
-      <c r="D1088" t="inlineStr">
-        <is>
-          <t>64.7</t>
-        </is>
-      </c>
-      <c r="E1088" t="inlineStr"/>
-      <c r="F1088" t="inlineStr">
-        <is>
-          <t>63.2</t>
-        </is>
-      </c>
-      <c r="G1088" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1089">
-      <c r="A1089" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1089" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1089" t="inlineStr"/>
-      <c r="D1089" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E1089" t="inlineStr"/>
-      <c r="F1089" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G1089" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1090">
-      <c r="A1090" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1090" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1090" t="inlineStr"/>
-      <c r="D1090" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E1090" t="inlineStr"/>
-      <c r="F1090" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
-      <c r="G1090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1091">
-      <c r="A1091" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1091" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1091" t="inlineStr"/>
-      <c r="D1091" t="inlineStr">
-        <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="E1091" t="inlineStr"/>
-      <c r="F1091" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
-      <c r="G1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1092">
-      <c r="A1092" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1092" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1092" t="inlineStr"/>
-      <c r="D1092" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="E1092" t="inlineStr"/>
-      <c r="F1092" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="G1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1093">
-      <c r="A1093" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1093" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C1093" t="inlineStr"/>
-      <c r="D1093" t="inlineStr"/>
-      <c r="E1093" t="inlineStr"/>
-      <c r="F1093" t="inlineStr"/>
-      <c r="G1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1094">
-      <c r="A1094" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1094" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C1094" t="inlineStr"/>
-      <c r="D1094" t="inlineStr"/>
-      <c r="E1094" t="inlineStr"/>
-      <c r="F1094" t="inlineStr"/>
-      <c r="G1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1095">
-      <c r="A1095" t="inlineStr">
-        <is>
-          <t>Saturday March 15 2025</t>
-        </is>
-      </c>
-      <c r="B1095" t="inlineStr"/>
-      <c r="C1095" t="inlineStr"/>
-      <c r="D1095" t="inlineStr"/>
-      <c r="E1095" t="inlineStr"/>
-      <c r="F1095" t="inlineStr"/>
-      <c r="G1095" t="inlineStr"/>
-    </row>
-    <row r="1096">
-      <c r="A1096" t="inlineStr">
-        <is>
-          <t>Sunday March 16 2025</t>
-        </is>
-      </c>
-      <c r="B1096" t="inlineStr"/>
-      <c r="C1096" t="inlineStr"/>
-      <c r="D1096" t="inlineStr"/>
-      <c r="E1096" t="inlineStr"/>
-      <c r="F1096" t="inlineStr"/>
-      <c r="G1096" t="inlineStr"/>
+      <c r="G1026" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-16.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1096"/>
+  <dimension ref="A1:G1026"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27375,10 +27375,8 @@
       <c r="D990" t="inlineStr"/>
       <c r="E990" t="inlineStr"/>
       <c r="F990" t="inlineStr"/>
-      <c r="G990" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G990" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="991">
@@ -27408,10 +27406,8 @@
           <t>56.0K</t>
         </is>
       </c>
-      <c r="G991" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G991" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="992">
@@ -27445,10 +27441,8 @@
           <t>$-123B</t>
         </is>
       </c>
-      <c r="G992" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G992" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="993">
@@ -27478,10 +27472,8 @@
           <t>$273.0B</t>
         </is>
       </c>
-      <c r="G993" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G993" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="994">
@@ -27511,10 +27503,8 @@
           <t>$396.0B</t>
         </is>
       </c>
-      <c r="G994" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G994" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="995">
@@ -27548,10 +27538,8 @@
           <t>250.0K</t>
         </is>
       </c>
-      <c r="G995" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G995" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="996">
@@ -27585,10 +27573,8 @@
           <t>1870.0K</t>
         </is>
       </c>
-      <c r="G996" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G996" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="997">
@@ -27618,10 +27604,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G997" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G997" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -27655,10 +27639,8 @@
           <t>1.2%</t>
         </is>
       </c>
-      <c r="G998" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G998" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="999">
@@ -27692,10 +27674,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G999" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G999" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1000">
@@ -27721,10 +27701,8 @@
       </c>
       <c r="E1000" t="inlineStr"/>
       <c r="F1000" t="inlineStr"/>
-      <c r="G1000" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1000" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1001">
@@ -27758,10 +27736,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="G1001" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1001" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1002">
@@ -27791,10 +27767,8 @@
         </is>
       </c>
       <c r="F1002" t="inlineStr"/>
-      <c r="G1002" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1002" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1003">
@@ -27820,10 +27794,8 @@
       </c>
       <c r="E1003" t="inlineStr"/>
       <c r="F1003" t="inlineStr"/>
-      <c r="G1003" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1003" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1004">
@@ -27849,10 +27821,8 @@
       </c>
       <c r="E1004" t="inlineStr"/>
       <c r="F1004" t="inlineStr"/>
-      <c r="G1004" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1004" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1005">
@@ -27878,10 +27848,8 @@
       </c>
       <c r="E1005" t="inlineStr"/>
       <c r="F1005" t="inlineStr"/>
-      <c r="G1005" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1005" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1006">
@@ -27907,69 +27875,91 @@
       </c>
       <c r="E1006" t="inlineStr"/>
       <c r="F1006" t="inlineStr"/>
-      <c r="G1006" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1006" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>Friday March 07 2025</t>
-        </is>
-      </c>
-      <c r="B1007" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1007" t="inlineStr">
+        <is>
+          <t>PPI Ex Food, Energy and Trade MoMFEB</t>
+        </is>
+      </c>
       <c r="C1007" t="inlineStr"/>
-      <c r="D1007" t="inlineStr"/>
+      <c r="D1007" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E1007" t="inlineStr"/>
-      <c r="F1007" t="inlineStr"/>
-      <c r="G1007" t="inlineStr"/>
+      <c r="F1007" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G1007" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>PPI Ex Food, Energy and Trade YoYFEB</t>
         </is>
       </c>
       <c r="C1008" t="inlineStr"/>
-      <c r="D1008" t="inlineStr"/>
+      <c r="D1008" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="E1008" t="inlineStr"/>
-      <c r="F1008" t="inlineStr"/>
+      <c r="F1008" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="G1008" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAR/05</t>
-        </is>
-      </c>
-      <c r="C1009" t="inlineStr">
-        <is>
-          <t>$6.76T</t>
-        </is>
-      </c>
+          <t>PPI YoYFEB</t>
+        </is>
+      </c>
+      <c r="C1009" t="inlineStr"/>
       <c r="D1009" t="inlineStr">
         <is>
-          <t>$6.77T</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="E1009" t="inlineStr"/>
-      <c r="F1009" t="inlineStr"/>
+      <c r="F1009" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="G1009" t="inlineStr">
         <is>
           <t>3</t>
@@ -27979,241 +27969,173 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>EIA Natural Gas Stocks ChangeMAR/07</t>
         </is>
       </c>
       <c r="C1010" t="inlineStr"/>
-      <c r="D1010" t="inlineStr"/>
+      <c r="D1010" t="inlineStr">
+        <is>
+          <t>-80Bcf</t>
+        </is>
+      </c>
       <c r="E1010" t="inlineStr"/>
       <c r="F1010" t="inlineStr"/>
       <c r="G1010" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsFEB</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1011" t="inlineStr"/>
-      <c r="D1011" t="inlineStr">
-        <is>
-          <t>143K</t>
-        </is>
-      </c>
-      <c r="E1011" t="inlineStr">
-        <is>
-          <t>160K</t>
-        </is>
-      </c>
-      <c r="F1011" t="inlineStr">
-        <is>
-          <t>150.0K</t>
-        </is>
-      </c>
+      <c r="D1011" t="inlineStr"/>
+      <c r="E1011" t="inlineStr"/>
+      <c r="F1011" t="inlineStr"/>
       <c r="G1011" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Unemployment RateFEB</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1012" t="inlineStr"/>
-      <c r="D1012" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E1012" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="F1012" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+      <c r="D1012" t="inlineStr"/>
+      <c r="E1012" t="inlineStr"/>
+      <c r="F1012" t="inlineStr"/>
       <c r="G1012" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMFEB</t>
+          <t>15-Year Mortgage RateMAR/13</t>
         </is>
       </c>
       <c r="C1013" t="inlineStr"/>
       <c r="D1013" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1013" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1013" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>5.79%</t>
+        </is>
+      </c>
+      <c r="E1013" t="inlineStr"/>
+      <c r="F1013" t="inlineStr"/>
       <c r="G1013" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYFEB</t>
+          <t>30-Year Mortgage RateMAR/13</t>
         </is>
       </c>
       <c r="C1014" t="inlineStr"/>
       <c r="D1014" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1014" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F1014" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+          <t>6.63%</t>
+        </is>
+      </c>
+      <c r="E1014" t="inlineStr"/>
+      <c r="F1014" t="inlineStr"/>
       <c r="G1014" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Participation RateFEB</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1015" t="inlineStr"/>
       <c r="D1015" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>4.748%</t>
         </is>
       </c>
       <c r="E1015" t="inlineStr"/>
-      <c r="F1015" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="F1015" t="inlineStr"/>
       <c r="G1015" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B1016" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursFEB</t>
-        </is>
-      </c>
+          <t>Friday March 14 2025</t>
+        </is>
+      </c>
+      <c r="B1016" t="inlineStr"/>
       <c r="C1016" t="inlineStr"/>
-      <c r="D1016" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="E1016" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F1016" t="inlineStr">
-        <is>
-          <t>34.1</t>
-        </is>
-      </c>
-      <c r="G1016" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D1016" t="inlineStr"/>
+      <c r="E1016" t="inlineStr"/>
+      <c r="F1016" t="inlineStr"/>
+      <c r="G1016" t="inlineStr"/>
     </row>
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Government PayrollsFEB</t>
+          <t>Fed Balance SheetMAR/12</t>
         </is>
       </c>
       <c r="C1017" t="inlineStr"/>
-      <c r="D1017" t="inlineStr">
-        <is>
-          <t>32K</t>
-        </is>
-      </c>
+      <c r="D1017" t="inlineStr"/>
       <c r="E1017" t="inlineStr"/>
-      <c r="F1017" t="inlineStr">
-        <is>
-          <t>-20.0K</t>
-        </is>
-      </c>
+      <c r="F1017" t="inlineStr"/>
       <c r="G1017" t="inlineStr">
         <is>
           <t>3</t>
@@ -28223,61 +28145,53 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsFEB</t>
+          <t>Michigan Consumer Sentiment PrelMAR</t>
         </is>
       </c>
       <c r="C1018" t="inlineStr"/>
       <c r="D1018" t="inlineStr">
         <is>
-          <t>3K</t>
-        </is>
-      </c>
-      <c r="E1018" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+          <t>64.7</t>
+        </is>
+      </c>
+      <c r="E1018" t="inlineStr"/>
       <c r="F1018" t="inlineStr">
         <is>
-          <t>6.0K</t>
+          <t>63.2</t>
         </is>
       </c>
       <c r="G1018" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateFEB</t>
+          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C1019" t="inlineStr"/>
       <c r="D1019" t="inlineStr">
         <is>
-          <t>111K</t>
-        </is>
-      </c>
-      <c r="E1019" t="inlineStr">
-        <is>
-          <t>142K</t>
-        </is>
-      </c>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E1019" t="inlineStr"/>
       <c r="F1019" t="inlineStr">
         <is>
-          <t>170.0K</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="G1019" t="inlineStr">
@@ -28289,24 +28203,24 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateFEB</t>
+          <t>Michigan Consumer Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C1020" t="inlineStr"/>
       <c r="D1020" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>64</t>
         </is>
       </c>
       <c r="E1020" t="inlineStr"/>
       <c r="F1020" t="inlineStr">
         <is>
-          <t>7.6%</t>
+          <t>63.5</t>
         </is>
       </c>
       <c r="G1020" t="inlineStr">
@@ -28318,54 +28232,70 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>08:45 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>Michigan Current Conditions PrelMAR</t>
         </is>
       </c>
       <c r="C1021" t="inlineStr"/>
-      <c r="D1021" t="inlineStr"/>
+      <c r="D1021" t="inlineStr">
+        <is>
+          <t>65.7</t>
+        </is>
+      </c>
       <c r="E1021" t="inlineStr"/>
-      <c r="F1021" t="inlineStr"/>
+      <c r="F1021" t="inlineStr">
+        <is>
+          <t>64.4</t>
+        </is>
+      </c>
       <c r="G1021" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>09:15 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Michigan Inflation Expectations PrelMAR</t>
         </is>
       </c>
       <c r="C1022" t="inlineStr"/>
-      <c r="D1022" t="inlineStr"/>
+      <c r="D1022" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="E1022" t="inlineStr"/>
-      <c r="F1022" t="inlineStr"/>
+      <c r="F1022" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
       <c r="G1022" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>10:50 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Baker Hughes Oil Rig CountMAR/14</t>
         </is>
       </c>
       <c r="C1023" t="inlineStr"/>
@@ -28374,19 +28304,19 @@
       <c r="F1023" t="inlineStr"/>
       <c r="G1023" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Fed Chair Powell Speech</t>
+          <t>Baker Hughes Total Rigs CountMAR/14</t>
         </is>
       </c>
       <c r="C1024" t="inlineStr"/>
@@ -28395,1753 +28325,35 @@
       <c r="F1024" t="inlineStr"/>
       <c r="G1024" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1025" t="inlineStr">
-        <is>
-          <t>Fed Kugler Speech</t>
-        </is>
-      </c>
+          <t>Saturday March 15 2025</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr"/>
       <c r="C1025" t="inlineStr"/>
       <c r="D1025" t="inlineStr"/>
       <c r="E1025" t="inlineStr"/>
       <c r="F1025" t="inlineStr"/>
-      <c r="G1025" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1025" t="inlineStr"/>
     </row>
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1026" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/07</t>
-        </is>
-      </c>
+          <t>Sunday March 16 2025</t>
+        </is>
+      </c>
+      <c r="B1026" t="inlineStr"/>
       <c r="C1026" t="inlineStr"/>
-      <c r="D1026" t="inlineStr">
-        <is>
-          <t>489</t>
-        </is>
-      </c>
+      <c r="D1026" t="inlineStr"/>
       <c r="E1026" t="inlineStr"/>
       <c r="F1026" t="inlineStr"/>
-      <c r="G1026" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1027">
-      <c r="A1027" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1027" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/07</t>
-        </is>
-      </c>
-      <c r="C1027" t="inlineStr"/>
-      <c r="D1027" t="inlineStr">
-        <is>
-          <t>593</t>
-        </is>
-      </c>
-      <c r="E1027" t="inlineStr"/>
-      <c r="F1027" t="inlineStr"/>
-      <c r="G1027" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1028">
-      <c r="A1028" t="inlineStr"/>
-      <c r="B1028" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1028" t="inlineStr"/>
-      <c r="D1028" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1028" t="inlineStr"/>
-      <c r="F1028" t="inlineStr"/>
-      <c r="G1028" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1029">
-      <c r="A1029" t="inlineStr"/>
-      <c r="B1029" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1029" t="inlineStr"/>
-      <c r="D1029" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1029" t="inlineStr"/>
-      <c r="F1029" t="inlineStr"/>
-      <c r="G1029" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1030">
-      <c r="A1030" t="inlineStr">
-        <is>
-          <t>Saturday March 08 2025</t>
-        </is>
-      </c>
-      <c r="B1030" t="inlineStr"/>
-      <c r="C1030" t="inlineStr"/>
-      <c r="D1030" t="inlineStr"/>
-      <c r="E1030" t="inlineStr"/>
-      <c r="F1030" t="inlineStr"/>
-      <c r="G1030" t="inlineStr"/>
-    </row>
-    <row r="1031">
-      <c r="A1031" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1031" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeJAN</t>
-        </is>
-      </c>
-      <c r="C1031" t="inlineStr"/>
-      <c r="D1031" t="inlineStr">
-        <is>
-          <t>$40.85B</t>
-        </is>
-      </c>
-      <c r="E1031" t="inlineStr">
-        <is>
-          <t>$14.5B</t>
-        </is>
-      </c>
-      <c r="F1031" t="inlineStr">
-        <is>
-          <t>$ -3.0B</t>
-        </is>
-      </c>
-      <c r="G1031" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1032">
-      <c r="A1032" t="inlineStr">
-        <is>
-          <t>Sunday March 09 2025</t>
-        </is>
-      </c>
-      <c r="B1032" t="inlineStr"/>
-      <c r="C1032" t="inlineStr"/>
-      <c r="D1032" t="inlineStr"/>
-      <c r="E1032" t="inlineStr"/>
-      <c r="F1032" t="inlineStr"/>
-      <c r="G1032" t="inlineStr"/>
-    </row>
-    <row r="1033">
-      <c r="A1033" t="inlineStr">
-        <is>
-          <t>Monday March 10 2025</t>
-        </is>
-      </c>
-      <c r="B1033" t="inlineStr"/>
-      <c r="C1033" t="inlineStr"/>
-      <c r="D1033" t="inlineStr"/>
-      <c r="E1033" t="inlineStr"/>
-      <c r="F1033" t="inlineStr"/>
-      <c r="G1033" t="inlineStr"/>
-    </row>
-    <row r="1034">
-      <c r="A1034" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B1034" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsFEB</t>
-        </is>
-      </c>
-      <c r="C1034" t="inlineStr"/>
-      <c r="D1034" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E1034" t="inlineStr"/>
-      <c r="F1034" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G1034" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1035">
-      <c r="A1035" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1035" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1035" t="inlineStr"/>
-      <c r="D1035" t="inlineStr">
-        <is>
-          <t>4.210%</t>
-        </is>
-      </c>
-      <c r="E1035" t="inlineStr"/>
-      <c r="F1035" t="inlineStr"/>
-      <c r="G1035" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1036">
-      <c r="A1036" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B1036" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1036" t="inlineStr"/>
-      <c r="D1036" t="inlineStr">
-        <is>
-          <t>4.135%</t>
-        </is>
-      </c>
-      <c r="E1036" t="inlineStr"/>
-      <c r="F1036" t="inlineStr"/>
-      <c r="G1036" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1037">
-      <c r="A1037" t="inlineStr">
-        <is>
-          <t>Tuesday March 11 2025</t>
-        </is>
-      </c>
-      <c r="B1037" t="inlineStr"/>
-      <c r="C1037" t="inlineStr"/>
-      <c r="D1037" t="inlineStr"/>
-      <c r="E1037" t="inlineStr"/>
-      <c r="F1037" t="inlineStr"/>
-      <c r="G1037" t="inlineStr"/>
-    </row>
-    <row r="1038">
-      <c r="A1038" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1038" t="inlineStr">
-        <is>
-          <t>NFIB Business Optimism IndexFEB</t>
-        </is>
-      </c>
-      <c r="C1038" t="inlineStr"/>
-      <c r="D1038" t="inlineStr">
-        <is>
-          <t>102.8</t>
-        </is>
-      </c>
-      <c r="E1038" t="inlineStr"/>
-      <c r="F1038" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="G1038" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1039">
-      <c r="A1039" t="inlineStr">
-        <is>
-          <t>07:25 PM</t>
-        </is>
-      </c>
-      <c r="B1039" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAR/08</t>
-        </is>
-      </c>
-      <c r="C1039" t="inlineStr"/>
-      <c r="D1039" t="inlineStr">
-        <is>
-          <t>6.6%</t>
-        </is>
-      </c>
-      <c r="E1039" t="inlineStr"/>
-      <c r="F1039" t="inlineStr"/>
-      <c r="G1039" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1040">
-      <c r="A1040" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1040" t="inlineStr">
-        <is>
-          <t>JOLTs Job OpeningsJAN</t>
-        </is>
-      </c>
-      <c r="C1040" t="inlineStr"/>
-      <c r="D1040" t="inlineStr">
-        <is>
-          <t>7.6M</t>
-        </is>
-      </c>
-      <c r="E1040" t="inlineStr"/>
-      <c r="F1040" t="inlineStr">
-        <is>
-          <t>7.5M</t>
-        </is>
-      </c>
-      <c r="G1040" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1041">
-      <c r="A1041" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1041" t="inlineStr">
-        <is>
-          <t>JOLTs Job QuitsJAN</t>
-        </is>
-      </c>
-      <c r="C1041" t="inlineStr"/>
-      <c r="D1041" t="inlineStr">
-        <is>
-          <t>3.197M</t>
-        </is>
-      </c>
-      <c r="E1041" t="inlineStr"/>
-      <c r="F1041" t="inlineStr">
-        <is>
-          <t>3.21M</t>
-        </is>
-      </c>
-      <c r="G1041" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1042">
-      <c r="A1042" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1042" t="inlineStr">
-        <is>
-          <t>WASDE Report</t>
-        </is>
-      </c>
-      <c r="C1042" t="inlineStr"/>
-      <c r="D1042" t="inlineStr"/>
-      <c r="E1042" t="inlineStr"/>
-      <c r="F1042" t="inlineStr"/>
-      <c r="G1042" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1043">
-      <c r="A1043" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1043" t="inlineStr">
-        <is>
-          <t>3-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1043" t="inlineStr"/>
-      <c r="D1043" t="inlineStr">
-        <is>
-          <t>4.300%</t>
-        </is>
-      </c>
-      <c r="E1043" t="inlineStr"/>
-      <c r="F1043" t="inlineStr"/>
-      <c r="G1043" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1044">
-      <c r="A1044" t="inlineStr">
-        <is>
-          <t>Wednesday March 12 2025</t>
-        </is>
-      </c>
-      <c r="B1044" t="inlineStr"/>
-      <c r="C1044" t="inlineStr"/>
-      <c r="D1044" t="inlineStr"/>
-      <c r="E1044" t="inlineStr"/>
-      <c r="F1044" t="inlineStr"/>
-      <c r="G1044" t="inlineStr"/>
-    </row>
-    <row r="1045">
-      <c r="A1045" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1045" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1045" t="inlineStr"/>
-      <c r="D1045" t="inlineStr">
-        <is>
-          <t>-1.455M</t>
-        </is>
-      </c>
-      <c r="E1045" t="inlineStr"/>
-      <c r="F1045" t="inlineStr"/>
-      <c r="G1045" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1046">
-      <c r="A1046" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1046" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAR/07</t>
-        </is>
-      </c>
-      <c r="C1046" t="inlineStr"/>
-      <c r="D1046" t="inlineStr">
-        <is>
-          <t>6.73%</t>
-        </is>
-      </c>
-      <c r="E1046" t="inlineStr"/>
-      <c r="F1046" t="inlineStr"/>
-      <c r="G1046" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1047">
-      <c r="A1047" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1047" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAR/07</t>
-        </is>
-      </c>
-      <c r="C1047" t="inlineStr"/>
-      <c r="D1047" t="inlineStr">
-        <is>
-          <t>20.4%</t>
-        </is>
-      </c>
-      <c r="E1047" t="inlineStr"/>
-      <c r="F1047" t="inlineStr"/>
-      <c r="G1047" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1048">
-      <c r="A1048" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1048" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C1048" t="inlineStr"/>
-      <c r="D1048" t="inlineStr">
-        <is>
-          <t>242.2</t>
-        </is>
-      </c>
-      <c r="E1048" t="inlineStr"/>
-      <c r="F1048" t="inlineStr"/>
-      <c r="G1048" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1049">
-      <c r="A1049" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1049" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C1049" t="inlineStr"/>
-      <c r="D1049" t="inlineStr">
-        <is>
-          <t>784.2</t>
-        </is>
-      </c>
-      <c r="E1049" t="inlineStr"/>
-      <c r="F1049" t="inlineStr"/>
-      <c r="G1049" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1050">
-      <c r="A1050" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1050" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAR/07</t>
-        </is>
-      </c>
-      <c r="C1050" t="inlineStr"/>
-      <c r="D1050" t="inlineStr">
-        <is>
-          <t>144.5</t>
-        </is>
-      </c>
-      <c r="E1050" t="inlineStr"/>
-      <c r="F1050" t="inlineStr"/>
-      <c r="G1050" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1051">
-      <c r="A1051" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1051" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1051" t="inlineStr"/>
-      <c r="D1051" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1051" t="inlineStr"/>
-      <c r="F1051" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1051" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1052">
-      <c r="A1052" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1052" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1052" t="inlineStr"/>
-      <c r="D1052" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E1052" t="inlineStr"/>
-      <c r="F1052" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G1052" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1053">
-      <c r="A1053" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1053" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1053" t="inlineStr"/>
-      <c r="D1053" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1053" t="inlineStr"/>
-      <c r="F1053" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1053" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1054">
-      <c r="A1054" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1054" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1054" t="inlineStr"/>
-      <c r="D1054" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E1054" t="inlineStr"/>
-      <c r="F1054" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G1054" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1055">
-      <c r="A1055" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1055" t="inlineStr">
-        <is>
-          <t>CPIFEB</t>
-        </is>
-      </c>
-      <c r="C1055" t="inlineStr"/>
-      <c r="D1055" t="inlineStr">
-        <is>
-          <t>317.67</t>
-        </is>
-      </c>
-      <c r="E1055" t="inlineStr"/>
-      <c r="F1055" t="inlineStr">
-        <is>
-          <t>319.3</t>
-        </is>
-      </c>
-      <c r="G1055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1056">
-      <c r="A1056" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1056" t="inlineStr">
-        <is>
-          <t>CPI s.aFEB</t>
-        </is>
-      </c>
-      <c r="C1056" t="inlineStr"/>
-      <c r="D1056" t="inlineStr">
-        <is>
-          <t>319.086</t>
-        </is>
-      </c>
-      <c r="E1056" t="inlineStr"/>
-      <c r="F1056" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="G1056" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1057">
-      <c r="A1057" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1057" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1057" t="inlineStr"/>
-      <c r="D1057" t="inlineStr">
-        <is>
-          <t>3.614M</t>
-        </is>
-      </c>
-      <c r="E1057" t="inlineStr"/>
-      <c r="F1057" t="inlineStr"/>
-      <c r="G1057" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1058">
-      <c r="A1058" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1058" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1058" t="inlineStr"/>
-      <c r="D1058" t="inlineStr">
-        <is>
-          <t>-1.433M</t>
-        </is>
-      </c>
-      <c r="E1058" t="inlineStr"/>
-      <c r="F1058" t="inlineStr"/>
-      <c r="G1058" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1059">
-      <c r="A1059" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1059" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1059" t="inlineStr"/>
-      <c r="D1059" t="inlineStr">
-        <is>
-          <t>-0.054M</t>
-        </is>
-      </c>
-      <c r="E1059" t="inlineStr"/>
-      <c r="F1059" t="inlineStr"/>
-      <c r="G1059" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1060">
-      <c r="A1060" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1060" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1060" t="inlineStr"/>
-      <c r="D1060" t="inlineStr">
-        <is>
-          <t>1.124M</t>
-        </is>
-      </c>
-      <c r="E1060" t="inlineStr"/>
-      <c r="F1060" t="inlineStr"/>
-      <c r="G1060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1061">
-      <c r="A1061" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1061" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1061" t="inlineStr"/>
-      <c r="D1061" t="inlineStr">
-        <is>
-          <t>-0.587M</t>
-        </is>
-      </c>
-      <c r="E1061" t="inlineStr"/>
-      <c r="F1061" t="inlineStr"/>
-      <c r="G1061" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1062">
-      <c r="A1062" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1062" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1062" t="inlineStr"/>
-      <c r="D1062" t="inlineStr">
-        <is>
-          <t>-1.318M</t>
-        </is>
-      </c>
-      <c r="E1062" t="inlineStr"/>
-      <c r="F1062" t="inlineStr"/>
-      <c r="G1062" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1063">
-      <c r="A1063" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1063" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1063" t="inlineStr"/>
-      <c r="D1063" t="inlineStr">
-        <is>
-          <t>0.464M</t>
-        </is>
-      </c>
-      <c r="E1063" t="inlineStr"/>
-      <c r="F1063" t="inlineStr"/>
-      <c r="G1063" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1064">
-      <c r="A1064" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1064" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1064" t="inlineStr"/>
-      <c r="D1064" t="inlineStr">
-        <is>
-          <t>-0.067M</t>
-        </is>
-      </c>
-      <c r="E1064" t="inlineStr"/>
-      <c r="F1064" t="inlineStr"/>
-      <c r="G1064" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1065">
-      <c r="A1065" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1065" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1065" t="inlineStr"/>
-      <c r="D1065" t="inlineStr">
-        <is>
-          <t>-0.346M</t>
-        </is>
-      </c>
-      <c r="E1065" t="inlineStr"/>
-      <c r="F1065" t="inlineStr"/>
-      <c r="G1065" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1066">
-      <c r="A1066" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1066" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1066" t="inlineStr"/>
-      <c r="D1066" t="inlineStr"/>
-      <c r="E1066" t="inlineStr"/>
-      <c r="F1066" t="inlineStr"/>
-      <c r="G1066" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1067">
-      <c r="A1067" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1067" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1067" t="inlineStr"/>
-      <c r="D1067" t="inlineStr">
-        <is>
-          <t>4.632%</t>
-        </is>
-      </c>
-      <c r="E1067" t="inlineStr"/>
-      <c r="F1067" t="inlineStr"/>
-      <c r="G1067" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1068">
-      <c r="A1068" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1068" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementFEB</t>
-        </is>
-      </c>
-      <c r="C1068" t="inlineStr"/>
-      <c r="D1068" t="inlineStr">
-        <is>
-          <t>$-129B</t>
-        </is>
-      </c>
-      <c r="E1068" t="inlineStr"/>
-      <c r="F1068" t="inlineStr">
-        <is>
-          <t>$-90.0B</t>
-        </is>
-      </c>
-      <c r="G1068" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1069">
-      <c r="A1069" t="inlineStr">
-        <is>
-          <t>Thursday March 13 2025</t>
-        </is>
-      </c>
-      <c r="B1069" t="inlineStr"/>
-      <c r="C1069" t="inlineStr"/>
-      <c r="D1069" t="inlineStr"/>
-      <c r="E1069" t="inlineStr"/>
-      <c r="F1069" t="inlineStr"/>
-      <c r="G1069" t="inlineStr"/>
-    </row>
-    <row r="1070">
-      <c r="A1070" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1070" t="inlineStr">
-        <is>
-          <t>PPI MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1070" t="inlineStr"/>
-      <c r="D1070" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1070" t="inlineStr"/>
-      <c r="F1070" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1070" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1071">
-      <c r="A1071" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1071" t="inlineStr">
-        <is>
-          <t>Core PPI MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1071" t="inlineStr"/>
-      <c r="D1071" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1071" t="inlineStr"/>
-      <c r="F1071" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1071" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1072">
-      <c r="A1072" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1072" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/08</t>
-        </is>
-      </c>
-      <c r="C1072" t="inlineStr"/>
-      <c r="D1072" t="inlineStr">
-        <is>
-          <t>221K</t>
-        </is>
-      </c>
-      <c r="E1072" t="inlineStr"/>
-      <c r="F1072" t="inlineStr"/>
-      <c r="G1072" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1073">
-      <c r="A1073" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1073" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAR/01</t>
-        </is>
-      </c>
-      <c r="C1073" t="inlineStr"/>
-      <c r="D1073" t="inlineStr"/>
-      <c r="E1073" t="inlineStr"/>
-      <c r="F1073" t="inlineStr"/>
-      <c r="G1073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1074">
-      <c r="A1074" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1074" t="inlineStr">
-        <is>
-          <t>Core PPI YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1074" t="inlineStr"/>
-      <c r="D1074" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E1074" t="inlineStr"/>
-      <c r="F1074" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G1074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1075">
-      <c r="A1075" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1075" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/08</t>
-        </is>
-      </c>
-      <c r="C1075" t="inlineStr"/>
-      <c r="D1075" t="inlineStr"/>
-      <c r="E1075" t="inlineStr"/>
-      <c r="F1075" t="inlineStr"/>
-      <c r="G1075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1076">
-      <c r="A1076" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1076" t="inlineStr">
-        <is>
-          <t>PPIFEB</t>
-        </is>
-      </c>
-      <c r="C1076" t="inlineStr"/>
-      <c r="D1076" t="inlineStr">
-        <is>
-          <t>147.716</t>
-        </is>
-      </c>
-      <c r="E1076" t="inlineStr"/>
-      <c r="F1076" t="inlineStr">
-        <is>
-          <t>148.1</t>
-        </is>
-      </c>
-      <c r="G1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1077">
-      <c r="A1077" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1077" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1077" t="inlineStr"/>
-      <c r="D1077" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1077" t="inlineStr"/>
-      <c r="F1077" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1078">
-      <c r="A1078" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1078" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1078" t="inlineStr"/>
-      <c r="D1078" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1078" t="inlineStr"/>
-      <c r="F1078" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1078" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1079">
-      <c r="A1079" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1079" t="inlineStr">
-        <is>
-          <t>PPI YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1079" t="inlineStr"/>
-      <c r="D1079" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E1079" t="inlineStr"/>
-      <c r="F1079" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1079" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1080">
-      <c r="A1080" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1080" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/07</t>
-        </is>
-      </c>
-      <c r="C1080" t="inlineStr"/>
-      <c r="D1080" t="inlineStr">
-        <is>
-          <t>-80Bcf</t>
-        </is>
-      </c>
-      <c r="E1080" t="inlineStr"/>
-      <c r="F1080" t="inlineStr"/>
-      <c r="G1080" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1081">
-      <c r="A1081" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1081" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1081" t="inlineStr"/>
-      <c r="D1081" t="inlineStr"/>
-      <c r="E1081" t="inlineStr"/>
-      <c r="F1081" t="inlineStr"/>
-      <c r="G1081" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1082">
-      <c r="A1082" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1082" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1082" t="inlineStr"/>
-      <c r="D1082" t="inlineStr"/>
-      <c r="E1082" t="inlineStr"/>
-      <c r="F1082" t="inlineStr"/>
-      <c r="G1082" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1083">
-      <c r="A1083" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1083" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/13</t>
-        </is>
-      </c>
-      <c r="C1083" t="inlineStr"/>
-      <c r="D1083" t="inlineStr">
-        <is>
-          <t>5.79%</t>
-        </is>
-      </c>
-      <c r="E1083" t="inlineStr"/>
-      <c r="F1083" t="inlineStr"/>
-      <c r="G1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1084">
-      <c r="A1084" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1084" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/13</t>
-        </is>
-      </c>
-      <c r="C1084" t="inlineStr"/>
-      <c r="D1084" t="inlineStr">
-        <is>
-          <t>6.63%</t>
-        </is>
-      </c>
-      <c r="E1084" t="inlineStr"/>
-      <c r="F1084" t="inlineStr"/>
-      <c r="G1084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1085">
-      <c r="A1085" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1085" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1085" t="inlineStr"/>
-      <c r="D1085" t="inlineStr">
-        <is>
-          <t>4.748%</t>
-        </is>
-      </c>
-      <c r="E1085" t="inlineStr"/>
-      <c r="F1085" t="inlineStr"/>
-      <c r="G1085" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1086">
-      <c r="A1086" t="inlineStr">
-        <is>
-          <t>Friday March 14 2025</t>
-        </is>
-      </c>
-      <c r="B1086" t="inlineStr"/>
-      <c r="C1086" t="inlineStr"/>
-      <c r="D1086" t="inlineStr"/>
-      <c r="E1086" t="inlineStr"/>
-      <c r="F1086" t="inlineStr"/>
-      <c r="G1086" t="inlineStr"/>
-    </row>
-    <row r="1087">
-      <c r="A1087" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1087" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/12</t>
-        </is>
-      </c>
-      <c r="C1087" t="inlineStr"/>
-      <c r="D1087" t="inlineStr"/>
-      <c r="E1087" t="inlineStr"/>
-      <c r="F1087" t="inlineStr"/>
-      <c r="G1087" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1088">
-      <c r="A1088" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1088" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1088" t="inlineStr"/>
-      <c r="D1088" t="inlineStr">
-        <is>
-          <t>64.7</t>
-        </is>
-      </c>
-      <c r="E1088" t="inlineStr"/>
-      <c r="F1088" t="inlineStr">
-        <is>
-          <t>63.2</t>
-        </is>
-      </c>
-      <c r="G1088" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1089">
-      <c r="A1089" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1089" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1089" t="inlineStr"/>
-      <c r="D1089" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E1089" t="inlineStr"/>
-      <c r="F1089" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G1089" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1090">
-      <c r="A1090" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1090" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1090" t="inlineStr"/>
-      <c r="D1090" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E1090" t="inlineStr"/>
-      <c r="F1090" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
-      <c r="G1090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1091">
-      <c r="A1091" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1091" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1091" t="inlineStr"/>
-      <c r="D1091" t="inlineStr">
-        <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="E1091" t="inlineStr"/>
-      <c r="F1091" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
-      <c r="G1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1092">
-      <c r="A1092" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1092" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1092" t="inlineStr"/>
-      <c r="D1092" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="E1092" t="inlineStr"/>
-      <c r="F1092" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="G1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1093">
-      <c r="A1093" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1093" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C1093" t="inlineStr"/>
-      <c r="D1093" t="inlineStr"/>
-      <c r="E1093" t="inlineStr"/>
-      <c r="F1093" t="inlineStr"/>
-      <c r="G1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1094">
-      <c r="A1094" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1094" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C1094" t="inlineStr"/>
-      <c r="D1094" t="inlineStr"/>
-      <c r="E1094" t="inlineStr"/>
-      <c r="F1094" t="inlineStr"/>
-      <c r="G1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1095">
-      <c r="A1095" t="inlineStr">
-        <is>
-          <t>Saturday March 15 2025</t>
-        </is>
-      </c>
-      <c r="B1095" t="inlineStr"/>
-      <c r="C1095" t="inlineStr"/>
-      <c r="D1095" t="inlineStr"/>
-      <c r="E1095" t="inlineStr"/>
-      <c r="F1095" t="inlineStr"/>
-      <c r="G1095" t="inlineStr"/>
-    </row>
-    <row r="1096">
-      <c r="A1096" t="inlineStr">
-        <is>
-          <t>Sunday March 16 2025</t>
-        </is>
-      </c>
-      <c r="B1096" t="inlineStr"/>
-      <c r="C1096" t="inlineStr"/>
-      <c r="D1096" t="inlineStr"/>
-      <c r="E1096" t="inlineStr"/>
-      <c r="F1096" t="inlineStr"/>
-      <c r="G1096" t="inlineStr"/>
+      <c r="G1026" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
